--- a/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015_OCTUBRE.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015_OCTUBRE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Downloads\UTP-GPS-ALARM-master\Area_de_Proceso-_PPQA\HGQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="642" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" tabRatio="642" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -24,6 +24,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planificación!$A$12:$Z$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Seguimiento de NC'!$A$4:$O$41</definedName>
     <definedName name="Analista" localSheetId="0">#REF!</definedName>
     <definedName name="AreaProceso" localSheetId="0">#REF!</definedName>
     <definedName name="Artefacto" localSheetId="0">#REF!</definedName>
@@ -57,7 +58,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$I$3:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -172,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="215">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -822,12 +823,15 @@
   </si>
   <si>
     <t>Aprobado</t>
+  </si>
+  <si>
+    <t>Documento en elaboración</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1927,7 +1931,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2540,131 +2544,139 @@
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2677,14 +2689,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2697,6 +2701,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2708,18 +2740,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2748,21 +2768,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2784,7 +2791,7 @@
     <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
@@ -2839,7 +2846,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2897,7 +2904,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2987,7 +2994,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1E45-479F-AB83-77D83B7E851D}"/>
               </c:ext>
@@ -3032,7 +3039,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-EC92-482A-AE00-7DAF384C4D3C}"/>
               </c:ext>
@@ -3061,7 +3068,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3084,7 +3091,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3117,7 +3124,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EC92-482A-AE00-7DAF384C4D3C}"/>
             </c:ext>
@@ -3165,7 +3172,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3200,7 +3207,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3212,7 +3219,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3270,7 +3277,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3360,7 +3367,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3405,7 +3412,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3450,7 +3457,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3495,7 +3502,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3540,7 +3547,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3585,7 +3592,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3606,11 +3613,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3627,11 +3634,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3648,11 +3655,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3669,11 +3676,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -3698,7 +3705,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3708,7 +3715,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3765,7 +3772,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0716-432A-8A0E-B7A5A8092E4A}"/>
             </c:ext>
@@ -3823,7 +3830,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3858,7 +3865,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3870,7 +3877,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3936,7 +3943,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3985,7 +3992,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D90A-429B-8317-E4DDE4E6EB04}"/>
               </c:ext>
@@ -4013,7 +4020,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4024,7 +4031,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4059,7 +4066,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D90A-429B-8317-E4DDE4E6EB04}"/>
             </c:ext>
@@ -4075,11 +4082,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="250937608"/>
-        <c:axId val="250587848"/>
+        <c:axId val="208494880"/>
+        <c:axId val="208495272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="250937608"/>
+        <c:axId val="208494880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4116,10 +4123,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250587848"/>
+        <c:crossAx val="208495272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4129,7 +4136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250587848"/>
+        <c:axId val="208495272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4174,10 +4181,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250937608"/>
+        <c:crossAx val="208494880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4213,7 +4220,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4248,7 +4255,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4260,7 +4267,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4318,7 +4325,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4442,7 +4449,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4511,7 +4518,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4580,7 +4587,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4596,12 +4603,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="251037088"/>
-        <c:axId val="251037472"/>
+        <c:axId val="247024288"/>
+        <c:axId val="247023504"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="251037088"/>
+        <c:axId val="247024288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4652,7 +4659,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4687,10 +4694,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251037472"/>
+        <c:crossAx val="247023504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4700,7 +4707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251037472"/>
+        <c:axId val="247023504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4773,7 +4780,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4802,10 +4809,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251037088"/>
+        <c:crossAx val="247024288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4841,7 +4848,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4876,7 +4883,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7680,22 +7687,22 @@
     <row r="2" spans="1:8" s="56" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="216" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="210"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="218"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="216" t="s">
+      <c r="C3" s="224" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="217"/>
-      <c r="E3" s="218"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -7707,12 +7714,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="211" t="s">
+      <c r="B5" s="219" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="213"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="221"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -7735,10 +7742,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="85"/>
-      <c r="D8" s="214" t="s">
+      <c r="D8" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="215"/>
+      <c r="E8" s="223"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -7753,10 +7760,10 @@
         <v>92</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="222" t="s">
+      <c r="D10" s="227" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="222"/>
+      <c r="E10" s="227"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -7771,10 +7778,10 @@
         <v>92</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="222" t="s">
+      <c r="D12" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="222"/>
+      <c r="E12" s="227"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -7789,10 +7796,10 @@
         <v>92</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="222" t="s">
+      <c r="D14" s="227" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="222"/>
+      <c r="E14" s="227"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -7807,10 +7814,10 @@
         <v>92</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="222" t="s">
+      <c r="D16" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="222"/>
+      <c r="E16" s="227"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -7824,62 +7831,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="202" t="s">
+      <c r="B19" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="203"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="204"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="211"/>
+      <c r="E19" s="212"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="206"/>
-      <c r="E20" s="207"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="219" t="s">
+      <c r="C21" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="220"/>
-      <c r="E21" s="221"/>
+      <c r="D21" s="202"/>
+      <c r="E21" s="203"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="219" t="s">
+      <c r="C22" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="220"/>
-      <c r="E22" s="221"/>
+      <c r="D22" s="202"/>
+      <c r="E22" s="203"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="219" t="s">
+      <c r="C23" s="201" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="220"/>
-      <c r="E23" s="221"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="203"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="219" t="s">
+      <c r="C24" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="220"/>
-      <c r="E24" s="221"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="203"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -7892,31 +7899,31 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="202" t="s">
+      <c r="B27" s="210" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="204"/>
+      <c r="C27" s="211"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="212"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="205" t="s">
+      <c r="C28" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="206"/>
-      <c r="E28" s="207"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="215"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="223" t="s">
+      <c r="B29" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="224"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="225"/>
+      <c r="C29" s="208"/>
+      <c r="D29" s="208"/>
+      <c r="E29" s="209"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
@@ -7925,11 +7932,11 @@
       <c r="B30" s="165" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="196" t="s">
+      <c r="C30" s="197" t="s">
         <v>201</v>
       </c>
-      <c r="D30" s="197"/>
-      <c r="E30" s="198"/>
+      <c r="D30" s="198"/>
+      <c r="E30" s="199"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
@@ -7938,11 +7945,11 @@
       <c r="B31" s="166" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="196" t="s">
+      <c r="C31" s="197" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="197"/>
-      <c r="E31" s="198"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="199"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
@@ -7951,11 +7958,11 @@
       <c r="B32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="196" t="s">
+      <c r="C32" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="197"/>
-      <c r="E32" s="198"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="199"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
@@ -7964,11 +7971,11 @@
       <c r="B33" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="196" t="s">
+      <c r="C33" s="197" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="197"/>
-      <c r="E33" s="198"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="199"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -7977,174 +7984,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="196" t="s">
+      <c r="C34" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="197"/>
-      <c r="E34" s="198"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="199"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="196" t="s">
+      <c r="C35" s="197" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="197"/>
-      <c r="E35" s="198"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="199"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="223" t="s">
+      <c r="B36" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="224"/>
-      <c r="D36" s="224"/>
-      <c r="E36" s="225"/>
+      <c r="C36" s="208"/>
+      <c r="D36" s="208"/>
+      <c r="E36" s="209"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="196" t="s">
+      <c r="C37" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="197"/>
-      <c r="E37" s="198"/>
+      <c r="D37" s="198"/>
+      <c r="E37" s="199"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="196" t="s">
+      <c r="C38" s="197" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="197"/>
-      <c r="E38" s="198"/>
+      <c r="D38" s="198"/>
+      <c r="E38" s="199"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="196" t="s">
+      <c r="C39" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="197"/>
-      <c r="E39" s="198"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="199"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="196" t="s">
+      <c r="C40" s="197" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="197"/>
-      <c r="E40" s="198"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="199"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="196" t="s">
+      <c r="C41" s="197" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="197"/>
-      <c r="E41" s="198"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="199"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="196" t="s">
+      <c r="C42" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="197"/>
-      <c r="E42" s="198"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="196" t="s">
+      <c r="C43" s="197" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="197"/>
-      <c r="E43" s="198"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="199"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="196" t="s">
+      <c r="C44" s="197" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="197"/>
-      <c r="E44" s="198"/>
+      <c r="D44" s="198"/>
+      <c r="E44" s="199"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="196" t="s">
+      <c r="C45" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="197"/>
-      <c r="E45" s="198"/>
+      <c r="D45" s="198"/>
+      <c r="E45" s="199"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="196" t="s">
+      <c r="C46" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="197"/>
-      <c r="E46" s="198"/>
+      <c r="D46" s="198"/>
+      <c r="E46" s="199"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="196" t="s">
+      <c r="C47" s="197" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="197"/>
-      <c r="E47" s="198"/>
+      <c r="D47" s="198"/>
+      <c r="E47" s="199"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="196" t="s">
+      <c r="C48" s="197" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="197"/>
-      <c r="E48" s="198"/>
+      <c r="D48" s="198"/>
+      <c r="E48" s="199"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="196" t="s">
+      <c r="C49" s="197" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="197"/>
-      <c r="E49" s="198"/>
+      <c r="D49" s="198"/>
+      <c r="E49" s="199"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
@@ -8177,23 +8184,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="202" t="s">
+      <c r="B52" s="210" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="203"/>
-      <c r="D52" s="203"/>
-      <c r="E52" s="204"/>
+      <c r="C52" s="211"/>
+      <c r="D52" s="211"/>
+      <c r="E52" s="212"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="205" t="s">
+      <c r="C53" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="206"/>
-      <c r="E53" s="207"/>
+      <c r="D53" s="214"/>
+      <c r="E53" s="215"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -8208,132 +8215,132 @@
       <c r="B54" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="196" t="s">
+      <c r="C54" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="197"/>
-      <c r="E54" s="198"/>
+      <c r="D54" s="198"/>
+      <c r="E54" s="199"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="196" t="s">
+      <c r="C55" s="197" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="197"/>
-      <c r="E55" s="198"/>
+      <c r="D55" s="198"/>
+      <c r="E55" s="199"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="196" t="s">
+      <c r="C56" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="197"/>
-      <c r="E56" s="198"/>
+      <c r="D56" s="198"/>
+      <c r="E56" s="199"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="196" t="s">
+      <c r="C57" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="200"/>
-      <c r="E57" s="201"/>
+      <c r="D57" s="204"/>
+      <c r="E57" s="205"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="196" t="s">
+      <c r="C58" s="197" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="200"/>
-      <c r="E58" s="201"/>
+      <c r="D58" s="204"/>
+      <c r="E58" s="205"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="196" t="s">
+      <c r="C59" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="200"/>
-      <c r="E59" s="201"/>
+      <c r="D59" s="204"/>
+      <c r="E59" s="205"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="196" t="s">
+      <c r="C60" s="197" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="200"/>
-      <c r="E60" s="201"/>
+      <c r="D60" s="204"/>
+      <c r="E60" s="205"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="199" t="s">
+      <c r="C61" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="200"/>
-      <c r="E61" s="201"/>
+      <c r="D61" s="204"/>
+      <c r="E61" s="205"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="196" t="s">
+      <c r="C62" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="200"/>
-      <c r="E62" s="201"/>
+      <c r="D62" s="204"/>
+      <c r="E62" s="205"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="199" t="s">
+      <c r="C63" s="206" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="200"/>
-      <c r="E63" s="201"/>
+      <c r="D63" s="204"/>
+      <c r="E63" s="205"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="199" t="s">
+      <c r="C64" s="206" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="200"/>
-      <c r="E64" s="201"/>
+      <c r="D64" s="204"/>
+      <c r="E64" s="205"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="196" t="s">
+      <c r="C65" s="197" t="s">
         <v>76</v>
       </c>
-      <c r="D65" s="197"/>
-      <c r="E65" s="198"/>
+      <c r="D65" s="198"/>
+      <c r="E65" s="199"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -8344,200 +8351,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="227"/>
-      <c r="C67" s="227"/>
-      <c r="D67" s="227"/>
-      <c r="E67" s="227"/>
+      <c r="B67" s="200"/>
+      <c r="C67" s="200"/>
+      <c r="D67" s="200"/>
+      <c r="E67" s="200"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="226"/>
-      <c r="C68" s="226"/>
-      <c r="D68" s="226"/>
-      <c r="E68" s="226"/>
+      <c r="B68" s="196"/>
+      <c r="C68" s="196"/>
+      <c r="D68" s="196"/>
+      <c r="E68" s="196"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="226"/>
-      <c r="C69" s="226"/>
-      <c r="D69" s="226"/>
-      <c r="E69" s="226"/>
+      <c r="B69" s="196"/>
+      <c r="C69" s="196"/>
+      <c r="D69" s="196"/>
+      <c r="E69" s="196"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="226"/>
-      <c r="C70" s="226"/>
-      <c r="D70" s="226"/>
-      <c r="E70" s="226"/>
+      <c r="B70" s="196"/>
+      <c r="C70" s="196"/>
+      <c r="D70" s="196"/>
+      <c r="E70" s="196"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="226"/>
-      <c r="C71" s="226"/>
-      <c r="D71" s="226"/>
-      <c r="E71" s="226"/>
+      <c r="B71" s="196"/>
+      <c r="C71" s="196"/>
+      <c r="D71" s="196"/>
+      <c r="E71" s="196"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="226"/>
-      <c r="C72" s="226"/>
-      <c r="D72" s="226"/>
-      <c r="E72" s="226"/>
+      <c r="B72" s="196"/>
+      <c r="C72" s="196"/>
+      <c r="D72" s="196"/>
+      <c r="E72" s="196"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="226"/>
-      <c r="C73" s="226"/>
-      <c r="D73" s="226"/>
-      <c r="E73" s="226"/>
+      <c r="B73" s="196"/>
+      <c r="C73" s="196"/>
+      <c r="D73" s="196"/>
+      <c r="E73" s="196"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="226"/>
-      <c r="C74" s="226"/>
-      <c r="D74" s="226"/>
-      <c r="E74" s="226"/>
+      <c r="B74" s="196"/>
+      <c r="C74" s="196"/>
+      <c r="D74" s="196"/>
+      <c r="E74" s="196"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="226"/>
-      <c r="C75" s="226"/>
-      <c r="D75" s="226"/>
-      <c r="E75" s="226"/>
+      <c r="B75" s="196"/>
+      <c r="C75" s="196"/>
+      <c r="D75" s="196"/>
+      <c r="E75" s="196"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="226"/>
-      <c r="C76" s="226"/>
-      <c r="D76" s="226"/>
-      <c r="E76" s="226"/>
+      <c r="B76" s="196"/>
+      <c r="C76" s="196"/>
+      <c r="D76" s="196"/>
+      <c r="E76" s="196"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="226"/>
-      <c r="C77" s="226"/>
-      <c r="D77" s="226"/>
-      <c r="E77" s="226"/>
+      <c r="B77" s="196"/>
+      <c r="C77" s="196"/>
+      <c r="D77" s="196"/>
+      <c r="E77" s="196"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="226"/>
-      <c r="C78" s="226"/>
-      <c r="D78" s="226"/>
-      <c r="E78" s="226"/>
+      <c r="B78" s="196"/>
+      <c r="C78" s="196"/>
+      <c r="D78" s="196"/>
+      <c r="E78" s="196"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="226"/>
-      <c r="C79" s="226"/>
-      <c r="D79" s="226"/>
-      <c r="E79" s="226"/>
+      <c r="B79" s="196"/>
+      <c r="C79" s="196"/>
+      <c r="D79" s="196"/>
+      <c r="E79" s="196"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="226"/>
-      <c r="C80" s="226"/>
-      <c r="D80" s="226"/>
-      <c r="E80" s="226"/>
+      <c r="B80" s="196"/>
+      <c r="C80" s="196"/>
+      <c r="D80" s="196"/>
+      <c r="E80" s="196"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="226"/>
-      <c r="C81" s="226"/>
-      <c r="D81" s="226"/>
-      <c r="E81" s="226"/>
+      <c r="B81" s="196"/>
+      <c r="C81" s="196"/>
+      <c r="D81" s="196"/>
+      <c r="E81" s="196"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="226"/>
-      <c r="C82" s="226"/>
-      <c r="D82" s="226"/>
-      <c r="E82" s="226"/>
+      <c r="B82" s="196"/>
+      <c r="C82" s="196"/>
+      <c r="D82" s="196"/>
+      <c r="E82" s="196"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="226"/>
-      <c r="C83" s="226"/>
-      <c r="D83" s="226"/>
-      <c r="E83" s="226"/>
+      <c r="B83" s="196"/>
+      <c r="C83" s="196"/>
+      <c r="D83" s="196"/>
+      <c r="E83" s="196"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="226"/>
-      <c r="C84" s="226"/>
-      <c r="D84" s="226"/>
-      <c r="E84" s="226"/>
+      <c r="B84" s="196"/>
+      <c r="C84" s="196"/>
+      <c r="D84" s="196"/>
+      <c r="E84" s="196"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="226"/>
-      <c r="C85" s="226"/>
-      <c r="D85" s="226"/>
-      <c r="E85" s="226"/>
+      <c r="B85" s="196"/>
+      <c r="C85" s="196"/>
+      <c r="D85" s="196"/>
+      <c r="E85" s="196"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="226"/>
-      <c r="C86" s="226"/>
-      <c r="D86" s="226"/>
-      <c r="E86" s="226"/>
+      <c r="B86" s="196"/>
+      <c r="C86" s="196"/>
+      <c r="D86" s="196"/>
+      <c r="E86" s="196"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -8550,27 +8557,40 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -8587,40 +8607,27 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8659,22 +8666,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="238" t="s">
+      <c r="B3" s="228" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
-      <c r="O3" s="238"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
+      <c r="L3" s="228"/>
+      <c r="M3" s="228"/>
+      <c r="N3" s="228"/>
+      <c r="O3" s="228"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -8682,39 +8689,39 @@
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1"/>
     <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="229" t="s">
+      <c r="B6" s="230" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="230"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="232" t="s">
+      <c r="C6" s="231"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="233" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="233"/>
-      <c r="G6" s="234"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
+      <c r="F6" s="234"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="229"/>
+      <c r="I6" s="229"/>
       <c r="O6" s="143"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="230" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="230"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="232" t="s">
+      <c r="C7" s="231"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="233" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="233"/>
-      <c r="G7" s="234"/>
-      <c r="J7" s="228" t="s">
+      <c r="F7" s="234"/>
+      <c r="G7" s="235"/>
+      <c r="J7" s="236" t="s">
         <v>160</v>
       </c>
-      <c r="K7" s="228"/>
-      <c r="L7" s="228"/>
-      <c r="M7" s="228"/>
-      <c r="N7" s="228"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="236"/>
+      <c r="M7" s="236"/>
+      <c r="N7" s="236"/>
       <c r="O7" s="164">
         <f>SUM(K13:K49)</f>
         <v>85</v>
@@ -8722,23 +8729,23 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="229" t="s">
+      <c r="B8" s="230" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="230"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="232" t="s">
+      <c r="C8" s="231"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="233" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="233"/>
-      <c r="G8" s="234"/>
-      <c r="J8" s="228" t="s">
+      <c r="F8" s="234"/>
+      <c r="G8" s="235"/>
+      <c r="J8" s="236" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="228"/>
-      <c r="L8" s="228"/>
-      <c r="M8" s="228"/>
-      <c r="N8" s="228"/>
+      <c r="K8" s="236"/>
+      <c r="L8" s="236"/>
+      <c r="M8" s="236"/>
+      <c r="N8" s="236"/>
       <c r="O8" s="164">
         <f>SUM(N13:N49)</f>
         <v>89</v>
@@ -8746,11 +8753,11 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="229" t="s">
+      <c r="B9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="230"/>
-      <c r="D9" s="231"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="232"/>
       <c r="E9" s="126">
         <v>42290</v>
       </c>
@@ -8765,16 +8772,16 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="229" t="s">
+      <c r="B10" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="230"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="235" t="s">
+      <c r="C10" s="231"/>
+      <c r="D10" s="232"/>
+      <c r="E10" s="237" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="236"/>
-      <c r="G10" s="237"/>
+      <c r="F10" s="238"/>
+      <c r="G10" s="239"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -10544,6 +10551,12 @@
     <row r="54" spans="1:15" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B6:D6"/>
@@ -10551,12 +10564,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10603,14 +10610,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja4"/>
+  <sheetPr codeName="Hoja4" filterMode="1"/>
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="O20" sqref="O20:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -10716,7 +10723,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="5" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A5" s="178">
         <v>1</v>
       </c>
@@ -10769,7 +10776,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="6" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A6" s="178">
         <f>A5+1</f>
         <v>2</v>
@@ -10823,7 +10830,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1">
+    <row r="7" spans="1:15" ht="60" hidden="1" customHeight="1">
       <c r="A7" s="178">
         <f t="shared" ref="A7:A41" si="0">A6+1</f>
         <v>3</v>
@@ -10875,7 +10882,7 @@
       </c>
       <c r="O7" s="181"/>
     </row>
-    <row r="8" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="8" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A8" s="178">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10929,7 +10936,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="9" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A9" s="178">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10983,7 +10990,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1">
+    <row r="10" spans="1:15" ht="60" hidden="1" customHeight="1">
       <c r="A10" s="178">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -11035,7 +11042,7 @@
       </c>
       <c r="O10" s="181"/>
     </row>
-    <row r="11" spans="1:15" ht="60" customHeight="1">
+    <row r="11" spans="1:15" ht="60" hidden="1" customHeight="1">
       <c r="A11" s="178">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -11087,7 +11094,7 @@
       </c>
       <c r="O11" s="181"/>
     </row>
-    <row r="12" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="12" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A12" s="178">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -11141,7 +11148,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="13" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A13" s="178">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -11195,7 +11202,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="14" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A14" s="178">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -11249,7 +11256,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="60" customHeight="1">
+    <row r="15" spans="1:15" ht="60" hidden="1" customHeight="1">
       <c r="A15" s="178">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -11301,7 +11308,7 @@
       </c>
       <c r="O15" s="181"/>
     </row>
-    <row r="16" spans="1:15" ht="60" customHeight="1">
+    <row r="16" spans="1:15" ht="60" hidden="1" customHeight="1">
       <c r="A16" s="178">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -11353,7 +11360,7 @@
       </c>
       <c r="O16" s="181"/>
     </row>
-    <row r="17" spans="1:15" ht="60" customHeight="1">
+    <row r="17" spans="1:15" ht="60" hidden="1" customHeight="1">
       <c r="A17" s="178">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -11405,7 +11412,7 @@
       </c>
       <c r="O17" s="181"/>
     </row>
-    <row r="18" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="18" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A18" s="178">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -11459,7 +11466,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="19" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A19" s="178">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -11563,7 +11570,9 @@
       <c r="N20" s="186">
         <v>1</v>
       </c>
-      <c r="O20" s="182"/>
+      <c r="O20" s="260" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="21" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A21" s="178">
@@ -11615,7 +11624,9 @@
       <c r="N21" s="186">
         <v>1</v>
       </c>
-      <c r="O21" s="182"/>
+      <c r="O21" s="260" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="22" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A22" s="178">
@@ -11667,7 +11678,9 @@
       <c r="N22" s="186">
         <v>1</v>
       </c>
-      <c r="O22" s="182"/>
+      <c r="O22" s="260" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="23" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A23" s="178">
@@ -11719,9 +11732,11 @@
       <c r="N23" s="186">
         <v>1</v>
       </c>
-      <c r="O23" s="182"/>
-    </row>
-    <row r="24" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+      <c r="O23" s="260" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A24" s="178">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -11775,7 +11790,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="25" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A25" s="178">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -11827,7 +11842,7 @@
       </c>
       <c r="O25" s="182"/>
     </row>
-    <row r="26" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="26" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A26" s="178">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -11881,7 +11896,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="27" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A27" s="178">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -11933,7 +11948,7 @@
       </c>
       <c r="O27" s="182"/>
     </row>
-    <row r="28" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="28" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A28" s="178">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -11987,7 +12002,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="29" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A29" s="178">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -12041,7 +12056,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="30" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A30" s="178">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -12095,7 +12110,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="31" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A31" s="178">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -12149,7 +12164,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="32" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A32" s="178">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -12203,7 +12218,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="33" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A33" s="178">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -12257,7 +12272,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="34" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A34" s="178">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -12309,7 +12324,7 @@
       </c>
       <c r="O34" s="182"/>
     </row>
-    <row r="35" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="35" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A35" s="178">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -12361,7 +12376,7 @@
       </c>
       <c r="O35" s="182"/>
     </row>
-    <row r="36" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="36" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A36" s="178">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -12413,7 +12428,7 @@
       </c>
       <c r="O36" s="182"/>
     </row>
-    <row r="37" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="37" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A37" s="178">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -12465,7 +12480,7 @@
       </c>
       <c r="O37" s="182"/>
     </row>
-    <row r="38" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="38" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A38" s="178">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -12517,7 +12532,7 @@
       </c>
       <c r="O38" s="182"/>
     </row>
-    <row r="39" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="39" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A39" s="178">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -12569,7 +12584,7 @@
       </c>
       <c r="O39" s="182"/>
     </row>
-    <row r="40" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="40" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A40" s="178">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -12621,7 +12636,7 @@
       </c>
       <c r="O40" s="182"/>
     </row>
-    <row r="41" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
+    <row r="41" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A41" s="178">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -12710,6 +12725,16 @@
       <c r="N45" s="172"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:O41">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="GUINSTALL / REQM"/>
+        <filter val="INPRUEX / REQM"/>
+        <filter val="INPRUIN / REQM"/>
+        <filter val="MANUSER / REQM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
@@ -12774,15 +12799,15 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="259"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="259"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
       <c r="J2" s="146"/>
       <c r="K2" s="146"/>
       <c r="L2" s="146"/>
@@ -12792,65 +12817,65 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="256" t="s">
+      <c r="C4" s="243" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="246" t="str">
+      <c r="D4" s="243"/>
+      <c r="E4" s="244" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="248"/>
+      <c r="F4" s="245"/>
+      <c r="G4" s="245"/>
+      <c r="H4" s="245"/>
+      <c r="I4" s="246"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="257" t="str">
+      <c r="C5" s="247" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="258"/>
-      <c r="E5" s="246" t="str">
+      <c r="D5" s="248"/>
+      <c r="E5" s="244" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="248"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="246"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="244" t="s">
+      <c r="C6" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="245"/>
-      <c r="E6" s="246" t="str">
+      <c r="D6" s="252"/>
+      <c r="E6" s="244" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F6" s="247"/>
-      <c r="G6" s="247"/>
-      <c r="H6" s="247"/>
-      <c r="I6" s="248"/>
+      <c r="F6" s="245"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="246"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="250" t="s">
+      <c r="C7" s="254" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="250"/>
-      <c r="E7" s="251">
+      <c r="D7" s="254"/>
+      <c r="E7" s="255">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42290</v>
       </c>
-      <c r="F7" s="252"/>
-      <c r="G7" s="253" t="s">
+      <c r="F7" s="256"/>
+      <c r="G7" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="254"/>
+      <c r="H7" s="258"/>
       <c r="I7" s="96">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42304</v>
@@ -12858,24 +12883,24 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="250" t="s">
+      <c r="C8" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="255"/>
-      <c r="E8" s="246" t="str">
+      <c r="D8" s="259"/>
+      <c r="E8" s="244" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>OCTUBRE</v>
       </c>
-      <c r="F8" s="247"/>
-      <c r="G8" s="247"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="248"/>
+      <c r="F8" s="245"/>
+      <c r="G8" s="245"/>
+      <c r="H8" s="245"/>
+      <c r="I8" s="246"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="249" t="s">
+      <c r="C13" s="253" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="249"/>
+      <c r="D13" s="253"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12957,10 +12982,10 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="243" t="s">
+      <c r="C26" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="243"/>
+      <c r="D26" s="250"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
@@ -13034,10 +13059,10 @@
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="243" t="s">
+      <c r="C40" s="250" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="243"/>
+      <c r="D40" s="250"/>
       <c r="P40" s="144"/>
     </row>
     <row r="41" spans="3:16">
@@ -13068,10 +13093,10 @@
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="243" t="s">
+      <c r="C57" s="250" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="243"/>
+      <c r="D57" s="250"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
@@ -13119,11 +13144,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -13135,6 +13155,11 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015_OCTUBRE.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015_OCTUBRE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" tabRatio="642" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" tabRatio="642" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$I$3:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -831,7 +831,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2541,6 +2541,9 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2767,9 +2770,6 @@
     <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2791,7 +2791,7 @@
     <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="19" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
@@ -2846,7 +2846,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2904,7 +2904,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2994,7 +2994,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1E45-479F-AB83-77D83B7E851D}"/>
               </c:ext>
@@ -3039,7 +3039,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-EC92-482A-AE00-7DAF384C4D3C}"/>
               </c:ext>
@@ -3068,7 +3068,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3091,7 +3091,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3124,7 +3124,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EC92-482A-AE00-7DAF384C4D3C}"/>
             </c:ext>
@@ -3172,7 +3172,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3207,7 +3207,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3219,7 +3219,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3277,7 +3277,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3367,7 +3367,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3412,7 +3412,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3457,7 +3457,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3502,7 +3502,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3547,7 +3547,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3592,7 +3592,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3613,11 +3613,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3634,11 +3634,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3655,11 +3655,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3676,11 +3676,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -3705,7 +3705,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3715,7 +3715,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3772,7 +3772,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0716-432A-8A0E-B7A5A8092E4A}"/>
             </c:ext>
@@ -3830,7 +3830,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3865,7 +3865,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3877,7 +3877,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3943,7 +3943,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3992,7 +3992,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D90A-429B-8317-E4DDE4E6EB04}"/>
               </c:ext>
@@ -4020,7 +4020,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4031,7 +4031,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4066,7 +4066,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D90A-429B-8317-E4DDE4E6EB04}"/>
             </c:ext>
@@ -4123,7 +4123,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="208495272"/>
@@ -4181,7 +4181,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="208494880"/>
@@ -4220,7 +4220,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4255,7 +4255,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4267,7 +4267,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4325,7 +4325,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4449,7 +4449,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4518,7 +4518,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4587,7 +4587,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4659,7 +4659,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4694,7 +4694,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="247023504"/>
@@ -4780,7 +4780,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4809,7 +4809,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="247024288"/>
@@ -4848,7 +4848,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4883,7 +4883,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7528,15 +7528,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="61"/>
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
       <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -7687,22 +7687,22 @@
     <row r="2" spans="1:8" s="56" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="216" t="s">
+      <c r="C2" s="217" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="217"/>
-      <c r="E2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="219"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="224" t="s">
+      <c r="C3" s="225" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="227"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -7714,12 +7714,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="220" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="222"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -7742,10 +7742,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="85"/>
-      <c r="D8" s="222" t="s">
+      <c r="D8" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="223"/>
+      <c r="E8" s="224"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -7760,10 +7760,10 @@
         <v>92</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="227" t="s">
+      <c r="D10" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="227"/>
+      <c r="E10" s="228"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -7778,10 +7778,10 @@
         <v>92</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="227" t="s">
+      <c r="D12" s="228" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="227"/>
+      <c r="E12" s="228"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -7796,10 +7796,10 @@
         <v>92</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="227" t="s">
+      <c r="D14" s="228" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="227"/>
+      <c r="E14" s="228"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -7814,10 +7814,10 @@
         <v>92</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="227" t="s">
+      <c r="D16" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="227"/>
+      <c r="E16" s="228"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -7831,62 +7831,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="211"/>
-      <c r="D19" s="211"/>
-      <c r="E19" s="212"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="213"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="213" t="s">
+      <c r="C20" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="214"/>
-      <c r="E20" s="215"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="216"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="201" t="s">
+      <c r="C21" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="202"/>
-      <c r="E21" s="203"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="204"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="201" t="s">
+      <c r="C22" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="202"/>
-      <c r="E22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="204"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="201" t="s">
+      <c r="C23" s="202" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="202"/>
-      <c r="E23" s="203"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="204"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="201" t="s">
+      <c r="C24" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="202"/>
-      <c r="E24" s="203"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="204"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -7899,31 +7899,31 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="211"/>
-      <c r="D27" s="211"/>
-      <c r="E27" s="212"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="213"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="213" t="s">
+      <c r="C28" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="214"/>
-      <c r="E28" s="215"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="216"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="207" t="s">
+      <c r="B29" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="208"/>
-      <c r="D29" s="208"/>
-      <c r="E29" s="209"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="210"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
@@ -7932,11 +7932,11 @@
       <c r="B30" s="165" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="197" t="s">
+      <c r="C30" s="198" t="s">
         <v>201</v>
       </c>
-      <c r="D30" s="198"/>
-      <c r="E30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="200"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
@@ -7945,11 +7945,11 @@
       <c r="B31" s="166" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="197" t="s">
+      <c r="C31" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="198"/>
-      <c r="E31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="200"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
@@ -7958,11 +7958,11 @@
       <c r="B32" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="197" t="s">
+      <c r="C32" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="198"/>
-      <c r="E32" s="199"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="200"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
@@ -7971,11 +7971,11 @@
       <c r="B33" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="197" t="s">
+      <c r="C33" s="198" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="198"/>
-      <c r="E33" s="199"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="200"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -7984,174 +7984,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="197" t="s">
+      <c r="C34" s="198" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="198"/>
-      <c r="E34" s="199"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="200"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="197" t="s">
+      <c r="C35" s="198" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="198"/>
-      <c r="E35" s="199"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="200"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="207" t="s">
+      <c r="B36" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="208"/>
-      <c r="D36" s="208"/>
-      <c r="E36" s="209"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="209"/>
+      <c r="E36" s="210"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="197" t="s">
+      <c r="C37" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="198"/>
-      <c r="E37" s="199"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="200"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="197" t="s">
+      <c r="C38" s="198" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="198"/>
-      <c r="E38" s="199"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="200"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="197" t="s">
+      <c r="C39" s="198" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="198"/>
-      <c r="E39" s="199"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="200"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="197" t="s">
+      <c r="C40" s="198" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="198"/>
-      <c r="E40" s="199"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="200"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="197" t="s">
+      <c r="C41" s="198" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="198"/>
-      <c r="E41" s="199"/>
+      <c r="D41" s="199"/>
+      <c r="E41" s="200"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="197" t="s">
+      <c r="C42" s="198" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="198"/>
-      <c r="E42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="200"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="197" t="s">
+      <c r="C43" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="198"/>
-      <c r="E43" s="199"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="200"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="197" t="s">
+      <c r="C44" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="198"/>
-      <c r="E44" s="199"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="200"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="197" t="s">
+      <c r="C45" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="198"/>
-      <c r="E45" s="199"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="200"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="197" t="s">
+      <c r="C46" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="198"/>
-      <c r="E46" s="199"/>
+      <c r="D46" s="199"/>
+      <c r="E46" s="200"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="197" t="s">
+      <c r="C47" s="198" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="198"/>
-      <c r="E47" s="199"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="200"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="197" t="s">
+      <c r="C48" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="198"/>
-      <c r="E48" s="199"/>
+      <c r="D48" s="199"/>
+      <c r="E48" s="200"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="197" t="s">
+      <c r="C49" s="198" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="198"/>
-      <c r="E49" s="199"/>
+      <c r="D49" s="199"/>
+      <c r="E49" s="200"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
@@ -8184,23 +8184,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="210" t="s">
+      <c r="B52" s="211" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="211"/>
-      <c r="D52" s="211"/>
-      <c r="E52" s="212"/>
+      <c r="C52" s="212"/>
+      <c r="D52" s="212"/>
+      <c r="E52" s="213"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="213" t="s">
+      <c r="C53" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="214"/>
-      <c r="E53" s="215"/>
+      <c r="D53" s="215"/>
+      <c r="E53" s="216"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -8215,132 +8215,132 @@
       <c r="B54" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="197" t="s">
+      <c r="C54" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="198"/>
-      <c r="E54" s="199"/>
+      <c r="D54" s="199"/>
+      <c r="E54" s="200"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="197" t="s">
+      <c r="C55" s="198" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="198"/>
-      <c r="E55" s="199"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="200"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="197" t="s">
+      <c r="C56" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="198"/>
-      <c r="E56" s="199"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="200"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="197" t="s">
+      <c r="C57" s="198" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="204"/>
-      <c r="E57" s="205"/>
+      <c r="D57" s="205"/>
+      <c r="E57" s="206"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="197" t="s">
+      <c r="C58" s="198" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="204"/>
-      <c r="E58" s="205"/>
+      <c r="D58" s="205"/>
+      <c r="E58" s="206"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="197" t="s">
+      <c r="C59" s="198" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="204"/>
-      <c r="E59" s="205"/>
+      <c r="D59" s="205"/>
+      <c r="E59" s="206"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="197" t="s">
+      <c r="C60" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="204"/>
-      <c r="E60" s="205"/>
+      <c r="D60" s="205"/>
+      <c r="E60" s="206"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="206" t="s">
+      <c r="C61" s="207" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="204"/>
-      <c r="E61" s="205"/>
+      <c r="D61" s="205"/>
+      <c r="E61" s="206"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="197" t="s">
+      <c r="C62" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="204"/>
-      <c r="E62" s="205"/>
+      <c r="D62" s="205"/>
+      <c r="E62" s="206"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="206" t="s">
+      <c r="C63" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="204"/>
-      <c r="E63" s="205"/>
+      <c r="D63" s="205"/>
+      <c r="E63" s="206"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="206" t="s">
+      <c r="C64" s="207" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="204"/>
-      <c r="E64" s="205"/>
+      <c r="D64" s="205"/>
+      <c r="E64" s="206"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="197" t="s">
+      <c r="C65" s="198" t="s">
         <v>76</v>
       </c>
-      <c r="D65" s="198"/>
-      <c r="E65" s="199"/>
+      <c r="D65" s="199"/>
+      <c r="E65" s="200"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -8351,200 +8351,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="200"/>
-      <c r="C67" s="200"/>
-      <c r="D67" s="200"/>
-      <c r="E67" s="200"/>
+      <c r="B67" s="201"/>
+      <c r="C67" s="201"/>
+      <c r="D67" s="201"/>
+      <c r="E67" s="201"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="196"/>
-      <c r="C68" s="196"/>
-      <c r="D68" s="196"/>
-      <c r="E68" s="196"/>
+      <c r="B68" s="197"/>
+      <c r="C68" s="197"/>
+      <c r="D68" s="197"/>
+      <c r="E68" s="197"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="196"/>
-      <c r="C69" s="196"/>
-      <c r="D69" s="196"/>
-      <c r="E69" s="196"/>
+      <c r="B69" s="197"/>
+      <c r="C69" s="197"/>
+      <c r="D69" s="197"/>
+      <c r="E69" s="197"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="196"/>
-      <c r="C70" s="196"/>
-      <c r="D70" s="196"/>
-      <c r="E70" s="196"/>
+      <c r="B70" s="197"/>
+      <c r="C70" s="197"/>
+      <c r="D70" s="197"/>
+      <c r="E70" s="197"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="196"/>
-      <c r="C71" s="196"/>
-      <c r="D71" s="196"/>
-      <c r="E71" s="196"/>
+      <c r="B71" s="197"/>
+      <c r="C71" s="197"/>
+      <c r="D71" s="197"/>
+      <c r="E71" s="197"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="196"/>
-      <c r="C72" s="196"/>
-      <c r="D72" s="196"/>
-      <c r="E72" s="196"/>
+      <c r="B72" s="197"/>
+      <c r="C72" s="197"/>
+      <c r="D72" s="197"/>
+      <c r="E72" s="197"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="196"/>
-      <c r="C73" s="196"/>
-      <c r="D73" s="196"/>
-      <c r="E73" s="196"/>
+      <c r="B73" s="197"/>
+      <c r="C73" s="197"/>
+      <c r="D73" s="197"/>
+      <c r="E73" s="197"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="196"/>
-      <c r="C74" s="196"/>
-      <c r="D74" s="196"/>
-      <c r="E74" s="196"/>
+      <c r="B74" s="197"/>
+      <c r="C74" s="197"/>
+      <c r="D74" s="197"/>
+      <c r="E74" s="197"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="196"/>
-      <c r="C75" s="196"/>
-      <c r="D75" s="196"/>
-      <c r="E75" s="196"/>
+      <c r="B75" s="197"/>
+      <c r="C75" s="197"/>
+      <c r="D75" s="197"/>
+      <c r="E75" s="197"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="196"/>
-      <c r="C76" s="196"/>
-      <c r="D76" s="196"/>
-      <c r="E76" s="196"/>
+      <c r="B76" s="197"/>
+      <c r="C76" s="197"/>
+      <c r="D76" s="197"/>
+      <c r="E76" s="197"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="196"/>
-      <c r="C77" s="196"/>
-      <c r="D77" s="196"/>
-      <c r="E77" s="196"/>
+      <c r="B77" s="197"/>
+      <c r="C77" s="197"/>
+      <c r="D77" s="197"/>
+      <c r="E77" s="197"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="196"/>
-      <c r="C78" s="196"/>
-      <c r="D78" s="196"/>
-      <c r="E78" s="196"/>
+      <c r="B78" s="197"/>
+      <c r="C78" s="197"/>
+      <c r="D78" s="197"/>
+      <c r="E78" s="197"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="196"/>
-      <c r="C79" s="196"/>
-      <c r="D79" s="196"/>
-      <c r="E79" s="196"/>
+      <c r="B79" s="197"/>
+      <c r="C79" s="197"/>
+      <c r="D79" s="197"/>
+      <c r="E79" s="197"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="196"/>
-      <c r="C80" s="196"/>
-      <c r="D80" s="196"/>
-      <c r="E80" s="196"/>
+      <c r="B80" s="197"/>
+      <c r="C80" s="197"/>
+      <c r="D80" s="197"/>
+      <c r="E80" s="197"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="196"/>
-      <c r="C81" s="196"/>
-      <c r="D81" s="196"/>
-      <c r="E81" s="196"/>
+      <c r="B81" s="197"/>
+      <c r="C81" s="197"/>
+      <c r="D81" s="197"/>
+      <c r="E81" s="197"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="196"/>
-      <c r="C82" s="196"/>
-      <c r="D82" s="196"/>
-      <c r="E82" s="196"/>
+      <c r="B82" s="197"/>
+      <c r="C82" s="197"/>
+      <c r="D82" s="197"/>
+      <c r="E82" s="197"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="196"/>
-      <c r="C83" s="196"/>
-      <c r="D83" s="196"/>
-      <c r="E83" s="196"/>
+      <c r="B83" s="197"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="197"/>
+      <c r="E83" s="197"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="196"/>
-      <c r="C84" s="196"/>
-      <c r="D84" s="196"/>
-      <c r="E84" s="196"/>
+      <c r="B84" s="197"/>
+      <c r="C84" s="197"/>
+      <c r="D84" s="197"/>
+      <c r="E84" s="197"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="196"/>
-      <c r="C85" s="196"/>
-      <c r="D85" s="196"/>
-      <c r="E85" s="196"/>
+      <c r="B85" s="197"/>
+      <c r="C85" s="197"/>
+      <c r="D85" s="197"/>
+      <c r="E85" s="197"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="196"/>
-      <c r="C86" s="196"/>
-      <c r="D86" s="196"/>
-      <c r="E86" s="196"/>
+      <c r="B86" s="197"/>
+      <c r="C86" s="197"/>
+      <c r="D86" s="197"/>
+      <c r="E86" s="197"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -8643,7 +8643,7 @@
   </sheetPr>
   <dimension ref="A3:Z54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
@@ -8666,22 +8666,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="228" t="s">
+      <c r="B3" s="229" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="228"/>
-      <c r="O3" s="228"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -8689,39 +8689,39 @@
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1"/>
     <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="230" t="s">
+      <c r="B6" s="231" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="231"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="233" t="s">
+      <c r="C6" s="232"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="234" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="234"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="229"/>
-      <c r="I6" s="229"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
       <c r="O6" s="143"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="230" t="s">
+      <c r="B7" s="231" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="231"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="233" t="s">
+      <c r="C7" s="232"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="234" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="234"/>
-      <c r="G7" s="235"/>
-      <c r="J7" s="236" t="s">
+      <c r="F7" s="235"/>
+      <c r="G7" s="236"/>
+      <c r="J7" s="237" t="s">
         <v>160</v>
       </c>
-      <c r="K7" s="236"/>
-      <c r="L7" s="236"/>
-      <c r="M7" s="236"/>
-      <c r="N7" s="236"/>
+      <c r="K7" s="237"/>
+      <c r="L7" s="237"/>
+      <c r="M7" s="237"/>
+      <c r="N7" s="237"/>
       <c r="O7" s="164">
         <f>SUM(K13:K49)</f>
         <v>85</v>
@@ -8729,23 +8729,23 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="231"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="233" t="s">
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="234" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="234"/>
-      <c r="G8" s="235"/>
-      <c r="J8" s="236" t="s">
+      <c r="F8" s="235"/>
+      <c r="G8" s="236"/>
+      <c r="J8" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="236"/>
-      <c r="L8" s="236"/>
-      <c r="M8" s="236"/>
-      <c r="N8" s="236"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="237"/>
+      <c r="M8" s="237"/>
+      <c r="N8" s="237"/>
       <c r="O8" s="164">
         <f>SUM(N13:N49)</f>
         <v>89</v>
@@ -8753,11 +8753,11 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="232"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="233"/>
       <c r="E9" s="126">
         <v>42290</v>
       </c>
@@ -8772,16 +8772,16 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="231"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="237" t="s">
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="238" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="238"/>
-      <c r="G10" s="239"/>
+      <c r="F10" s="239"/>
+      <c r="G10" s="240"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -10610,14 +10610,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja4" filterMode="1"/>
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O20" sqref="O20:O23"/>
+      <selection pane="bottomRight" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -10638,22 +10638,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="242"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="243"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="26"/>
@@ -10723,7 +10723,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="5" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A5" s="178">
         <v>1</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="6" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A6" s="178">
         <f>A5+1</f>
         <v>2</v>
@@ -10830,7 +10830,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" hidden="1" customHeight="1">
+    <row r="7" spans="1:15" ht="60" customHeight="1">
       <c r="A7" s="178">
         <f t="shared" ref="A7:A41" si="0">A6+1</f>
         <v>3</v>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="O7" s="181"/>
     </row>
-    <row r="8" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="8" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A8" s="178">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10936,7 +10936,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="9" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="178">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10990,7 +10990,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="60" hidden="1" customHeight="1">
+    <row r="10" spans="1:15" ht="60" customHeight="1">
       <c r="A10" s="178">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -11042,7 +11042,7 @@
       </c>
       <c r="O10" s="181"/>
     </row>
-    <row r="11" spans="1:15" ht="60" hidden="1" customHeight="1">
+    <row r="11" spans="1:15" ht="60" customHeight="1">
       <c r="A11" s="178">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -11094,7 +11094,7 @@
       </c>
       <c r="O11" s="181"/>
     </row>
-    <row r="12" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="12" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A12" s="178">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -11148,7 +11148,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="13" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A13" s="178">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -11202,7 +11202,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="14" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A14" s="178">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -11256,7 +11256,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="60" hidden="1" customHeight="1">
+    <row r="15" spans="1:15" ht="60" customHeight="1">
       <c r="A15" s="178">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -11308,7 +11308,7 @@
       </c>
       <c r="O15" s="181"/>
     </row>
-    <row r="16" spans="1:15" ht="60" hidden="1" customHeight="1">
+    <row r="16" spans="1:15" ht="60" customHeight="1">
       <c r="A16" s="178">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="O16" s="181"/>
     </row>
-    <row r="17" spans="1:15" ht="60" hidden="1" customHeight="1">
+    <row r="17" spans="1:15" ht="60" customHeight="1">
       <c r="A17" s="178">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="O17" s="181"/>
     </row>
-    <row r="18" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="18" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A18" s="178">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -11466,7 +11466,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="19" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A19" s="178">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -11570,7 +11570,7 @@
       <c r="N20" s="186">
         <v>1</v>
       </c>
-      <c r="O20" s="260" t="s">
+      <c r="O20" s="195" t="s">
         <v>214</v>
       </c>
     </row>
@@ -11624,7 +11624,7 @@
       <c r="N21" s="186">
         <v>1</v>
       </c>
-      <c r="O21" s="260" t="s">
+      <c r="O21" s="195" t="s">
         <v>214</v>
       </c>
     </row>
@@ -11678,7 +11678,7 @@
       <c r="N22" s="186">
         <v>1</v>
       </c>
-      <c r="O22" s="260" t="s">
+      <c r="O22" s="195" t="s">
         <v>214</v>
       </c>
     </row>
@@ -11732,11 +11732,11 @@
       <c r="N23" s="186">
         <v>1</v>
       </c>
-      <c r="O23" s="260" t="s">
+      <c r="O23" s="195" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="24" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A24" s="178">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -11790,7 +11790,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="25" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A25" s="178">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -11842,7 +11842,7 @@
       </c>
       <c r="O25" s="182"/>
     </row>
-    <row r="26" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="26" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A26" s="178">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -11896,7 +11896,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="27" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A27" s="178">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -11948,7 +11948,7 @@
       </c>
       <c r="O27" s="182"/>
     </row>
-    <row r="28" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="28" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A28" s="178">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -12002,7 +12002,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="29" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A29" s="178">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -12056,7 +12056,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="30" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A30" s="178">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -12110,7 +12110,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="31" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A31" s="178">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -12164,7 +12164,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="32" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A32" s="178">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -12218,7 +12218,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="33" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A33" s="178">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -12272,7 +12272,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="34" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A34" s="178">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="O34" s="182"/>
     </row>
-    <row r="35" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="35" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A35" s="178">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -12376,7 +12376,7 @@
       </c>
       <c r="O35" s="182"/>
     </row>
-    <row r="36" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="36" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A36" s="178">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -12428,7 +12428,7 @@
       </c>
       <c r="O36" s="182"/>
     </row>
-    <row r="37" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="37" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A37" s="178">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -12480,7 +12480,7 @@
       </c>
       <c r="O37" s="182"/>
     </row>
-    <row r="38" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="38" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A38" s="178">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -12532,7 +12532,7 @@
       </c>
       <c r="O38" s="182"/>
     </row>
-    <row r="39" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="39" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A39" s="178">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -12584,7 +12584,7 @@
       </c>
       <c r="O39" s="182"/>
     </row>
-    <row r="40" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="40" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A40" s="178">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -12636,7 +12636,7 @@
       </c>
       <c r="O40" s="182"/>
     </row>
-    <row r="41" spans="1:15" s="113" customFormat="1" ht="60" hidden="1" customHeight="1">
+    <row r="41" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
       <c r="A41" s="178">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -12725,16 +12725,7 @@
       <c r="N45" s="172"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:O41">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="GUINSTALL / REQM"/>
-        <filter val="INPRUEX / REQM"/>
-        <filter val="INPRUIN / REQM"/>
-        <filter val="MANUSER / REQM"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:O41"/>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
@@ -12799,15 +12790,15 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="249" t="s">
+      <c r="C2" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
       <c r="J2" s="146"/>
       <c r="K2" s="146"/>
       <c r="L2" s="146"/>
@@ -12817,65 +12808,65 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="243"/>
-      <c r="E4" s="244" t="str">
+      <c r="D4" s="244"/>
+      <c r="E4" s="245" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="246"/>
+      <c r="F4" s="246"/>
+      <c r="G4" s="246"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="247"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="247" t="str">
+      <c r="C5" s="248" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="248"/>
-      <c r="E5" s="244" t="str">
+      <c r="D5" s="249"/>
+      <c r="E5" s="245" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="245"/>
-      <c r="G5" s="245"/>
-      <c r="H5" s="245"/>
-      <c r="I5" s="246"/>
+      <c r="F5" s="246"/>
+      <c r="G5" s="246"/>
+      <c r="H5" s="246"/>
+      <c r="I5" s="247"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="251" t="s">
+      <c r="C6" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="252"/>
-      <c r="E6" s="244" t="str">
+      <c r="D6" s="253"/>
+      <c r="E6" s="245" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="246"/>
+      <c r="F6" s="246"/>
+      <c r="G6" s="246"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="247"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="254" t="s">
+      <c r="C7" s="255" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="255">
+      <c r="D7" s="255"/>
+      <c r="E7" s="256">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42290</v>
       </c>
-      <c r="F7" s="256"/>
-      <c r="G7" s="257" t="s">
+      <c r="F7" s="257"/>
+      <c r="G7" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="258"/>
+      <c r="H7" s="259"/>
       <c r="I7" s="96">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42304</v>
@@ -12883,24 +12874,24 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="254" t="s">
+      <c r="C8" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="259"/>
-      <c r="E8" s="244" t="str">
+      <c r="D8" s="260"/>
+      <c r="E8" s="245" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>OCTUBRE</v>
       </c>
-      <c r="F8" s="245"/>
-      <c r="G8" s="245"/>
-      <c r="H8" s="245"/>
-      <c r="I8" s="246"/>
+      <c r="F8" s="246"/>
+      <c r="G8" s="246"/>
+      <c r="H8" s="246"/>
+      <c r="I8" s="247"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="253" t="s">
+      <c r="C13" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="253"/>
+      <c r="D13" s="254"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12982,10 +12973,10 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="250" t="s">
+      <c r="C26" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="250"/>
+      <c r="D26" s="251"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
@@ -13059,10 +13050,10 @@
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="250" t="s">
+      <c r="C40" s="251" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="250"/>
+      <c r="D40" s="251"/>
       <c r="P40" s="144"/>
     </row>
     <row r="41" spans="3:16">
@@ -13093,10 +13084,10 @@
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="250" t="s">
+      <c r="C57" s="251" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="250"/>
+      <c r="D57" s="251"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">

--- a/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015_OCTUBRE.xlsx
+++ b/Area_de_Proceso-_PPQA/HGQA/HGQA_V1.0_2015_OCTUBRE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" tabRatio="642" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7650" tabRatio="642" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$I$3:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -125,7 +125,7 @@
             <family val="2"/>
           </rPr>
           <t>Las acciones realizadas para solucionar la no conformidad
-ó
+o
 El Nro. De Oportunidad de Mejora generada</t>
         </r>
       </text>
@@ -173,15 +173,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="232">
   <si>
     <t>Analista Responsable</t>
   </si>
   <si>
     <t>Periodo de Medición:</t>
-  </si>
-  <si>
-    <t>ASEGURAMIENTO DE LA CALIDAD - INFORME</t>
   </si>
   <si>
     <t>Seguimiento de NC</t>
@@ -269,9 +266,6 @@
     <t>Indicador Cierre</t>
   </si>
   <si>
-    <t>SEGUIMIENTO DE NO CONFORMIDADES</t>
-  </si>
-  <si>
     <t>A. Resumen de Revisiones</t>
   </si>
   <si>
@@ -297,12 +291,6 @@
   </si>
   <si>
     <t>B. Resumen por Tipo de No Conformidad</t>
-  </si>
-  <si>
-    <t>Nro de revisiones de Planificadas:</t>
-  </si>
-  <si>
-    <t>Nro de revisiones Ejecutadas:</t>
   </si>
   <si>
     <t>Objetivo</t>
@@ -499,345 +487,408 @@
     <t>Analista de procesos responsable del artefacto, según hoja "Planificación"</t>
   </si>
   <si>
+    <t>C. Esfuerzo invertido en revisiones de QA.</t>
+  </si>
+  <si>
+    <t>Duración Planificada</t>
+  </si>
+  <si>
+    <t>Duración Real</t>
+  </si>
+  <si>
+    <t>Revisado / Analista Responsable</t>
+  </si>
+  <si>
+    <t>Revisado Analista responsable</t>
+  </si>
+  <si>
+    <t>Tipo Proyecto</t>
+  </si>
+  <si>
+    <t>Tipo de Proyecto</t>
+  </si>
+  <si>
+    <t>Entregable</t>
+  </si>
+  <si>
+    <t>Nombre del entregable revisado</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Nro. de Revisión</t>
+  </si>
+  <si>
+    <t>D. Resumen por Origen de NC</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>Funcionalidad</t>
+  </si>
+  <si>
+    <t>Base de Datos</t>
+  </si>
+  <si>
+    <t>Desarrollo de Sistemas</t>
+  </si>
+  <si>
+    <t>Revisado / Auditado</t>
+  </si>
+  <si>
+    <t>Responsable (s) de levantar no conformidad</t>
+  </si>
+  <si>
+    <t>Entregable / Proceso revisado</t>
+  </si>
+  <si>
+    <t>Entregable / Proceso</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>PPQA</t>
+  </si>
+  <si>
+    <t>PP_PMC</t>
+  </si>
+  <si>
+    <t>REQM</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Jefe de Proyecto:</t>
+  </si>
+  <si>
+    <t>PGC_Proceso de Gestion de Configuracion</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Julio Leonardo Paredes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP-GPS-ALARM </t>
+  </si>
+  <si>
+    <t>Analista de Calidad</t>
+  </si>
+  <si>
+    <t>OCTUBRE</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Gaspar</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Revisores y/o Revisados</t>
+  </si>
+  <si>
+    <t>Entregables y Procesos</t>
+  </si>
+  <si>
+    <t>PPROY_Plan de Proyecto</t>
+  </si>
+  <si>
+    <t>REGRI_Registro de Riesgos</t>
+  </si>
+  <si>
+    <t>LMREQM_Lista Maestra de Requerimientos</t>
+  </si>
+  <si>
+    <t>SOLACC_Solicitud de Accesos</t>
+  </si>
+  <si>
+    <t>CPROY_Cronograma de Proyecto</t>
+  </si>
+  <si>
+    <t>RCREQM_Registro de Cambios a Requerimientos</t>
+  </si>
+  <si>
+    <t>SOLCREQ_Solicitud de Cambios a Requerimientos</t>
+  </si>
+  <si>
+    <t>AREXT_Acta de reunion Externa</t>
+  </si>
+  <si>
+    <t>REGITCON_Registro de Items de Configuracion</t>
+  </si>
+  <si>
+    <t>MTREQM_Matriz Trazabilidad de Requerimientos</t>
+  </si>
+  <si>
+    <t>PGREQM_Proceso de Gestion de Requerimientos</t>
+  </si>
+  <si>
+    <t>DANA_Documento de Analisis</t>
+  </si>
+  <si>
+    <t>MANUSER_Manual de Usuario</t>
+  </si>
+  <si>
+    <t>GUINSTALL_Guia de Instalacion</t>
+  </si>
+  <si>
+    <t>HORAS PROGRAMADAS PARA REVISIÓN</t>
+  </si>
+  <si>
+    <t>HORAS INVERTIDAS EN REVISIÓN</t>
+  </si>
+  <si>
+    <t>PGPROY_Proceso de Gestion</t>
+  </si>
+  <si>
+    <t>ACREVPRO_Acta de Revision de Plan de Proyecto</t>
+  </si>
+  <si>
+    <t>ACCPRO_Acta de Cierre de Proyecto</t>
+  </si>
+  <si>
+    <t>ACREPRO_Acta de Relatorio de Proyecto</t>
+  </si>
+  <si>
+    <t>ASCR_Acta de Solicitud de Cambios a Requerimientos</t>
+  </si>
+  <si>
+    <t>INPRUIN_Informe de Pruebas Internas</t>
+  </si>
+  <si>
+    <t>IAUDICM_Informe de Auditoria de CM</t>
+  </si>
+  <si>
+    <t>FMVREQM_Ficha de Metricas de Volatilidad de Requerimientos</t>
+  </si>
+  <si>
+    <t>FMICIC_Ficha de Metrica de Indice de Cambios en Items de Configuracion</t>
+  </si>
+  <si>
+    <t>FMEXRI_Ficha de Metrica de Exposicion al Riesgo</t>
+  </si>
+  <si>
+    <t>IAQUIN_Informe Avance Quincenal</t>
+  </si>
+  <si>
+    <t>ARINT_Actas de Reunion Quincenal</t>
+  </si>
+  <si>
+    <t>ACENTRE_Acta de Aceptacion  de Entregables</t>
+  </si>
+  <si>
+    <t>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</t>
+  </si>
+  <si>
+    <t>Roger Apaéstegui Ortega</t>
+  </si>
+  <si>
+    <t>No se encontraron No Conformidades</t>
+  </si>
+  <si>
+    <t>Corrección de Errores Ortográficos en Inciso 5.2</t>
+  </si>
+  <si>
+    <t>Reestructurar Tareas y cambiar definiciones en el Proceso de Gestión e Ingeniería</t>
+  </si>
+  <si>
+    <t>Especificar mayor número de aspectos a auditar por documento</t>
+  </si>
+  <si>
+    <t>Especificar el Acceso de Solo Lectura al Cliente (MST E.I.R.L)</t>
+  </si>
+  <si>
+    <t>PROY</t>
+  </si>
+  <si>
+    <t>DDIS_Documento de Diseño</t>
+  </si>
+  <si>
+    <t>PQA_Proceso de Aseguramiento de Calidad</t>
+  </si>
+  <si>
+    <t>HGQA_Herramienta Gestion de Aseguramiento de Calidad</t>
+  </si>
+  <si>
+    <t>INREQA_Informe de Revisión General de Aseguramiento de Calidad</t>
+  </si>
+  <si>
+    <t>SOLQA_Solicitud de Aseguramiento de Calidad</t>
+  </si>
+  <si>
+    <t>CHKQA_CheckList de Aseguramiento de Calidad</t>
+  </si>
+  <si>
+    <t>ICIC_Indice Cambios Items de Configuracion</t>
+  </si>
+  <si>
+    <t>PROMM_Proceso de Medicion de Metrica</t>
+  </si>
+  <si>
+    <t>TABM_Tablero de Metricas</t>
+  </si>
+  <si>
+    <t>FMNCONQAP_Ficha de Metricas de N Conformidades QA de Producto</t>
+  </si>
+  <si>
+    <t>INPRUEX_Informe de Pruebas Externas</t>
+  </si>
+  <si>
+    <t>Ajustar documento a formato de documentos del proyecto</t>
+  </si>
+  <si>
+    <t>Fecha Efectiva: 20/10/2015</t>
+  </si>
+  <si>
+    <t>Nombre del Jefe de Proyecto</t>
+  </si>
+  <si>
+    <t>Nombre del Analista de Calidad</t>
+  </si>
+  <si>
+    <t>Solucionado 24/10/2015</t>
+  </si>
+  <si>
+    <t>Actualizar Datos Modificados en Fases de Desarrollo (Entregables), los WBS de Gestión e Ingeniería (Entregables) y la Nomenclatura (Documentación) -Todo el Inciso 7 (Actualización de Entregables), Inciso 9.41(Actualización de Documentación y Nomenclatura)</t>
+  </si>
+  <si>
+    <t>Ajustar Gráficas a formato de los documentos del proyecto (Inciso 5.1 Página 14 : Gráfica del Subproceso de Gestión de Cambios a Requerimientos)</t>
+  </si>
+  <si>
+    <t>Actualizar datos acordes a la solicitud de cambio de requerimientos del proyecto (Libro Requerimientos de Usuario)</t>
+  </si>
+  <si>
+    <t>Actualizar datos acordes a la solicitud de cambio de requerimientos del proyecto (Libro Trazabilidad REQ a Doc. GC)</t>
+  </si>
+  <si>
+    <t>Mayor tiempo del Planificado</t>
+  </si>
+  <si>
+    <t>Planificación y Ejecución Conforme</t>
+  </si>
+  <si>
+    <t>Nro.</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>Documento en elaboración</t>
+  </si>
+  <si>
+    <t>HGQA_V1.0_2015 OCTUBRE Herramienta de Gestión QA-Producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HGQA Herramienta de Gestión QA - Producto</t>
+  </si>
+  <si>
+    <t>HGQA ASEGURAMIENTO DE LA CALIDAD - INFORME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HGQA SEGUIMIENTO DE NO CONFORMIDADES</t>
+  </si>
+  <si>
+    <t>Nro. de revisiones de Planificadas:</t>
+  </si>
+  <si>
+    <t>Nro. de revisiones Ejecutadas:</t>
+  </si>
+  <si>
+    <t>Definir nuevos riesgos que aún no están contemplados y son de importancia en el Proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir índice y numeración de subtemas desarrollados en el documento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir índice y numeración de subtemas en el documento </t>
+  </si>
+  <si>
+    <t>Actualizar datos de Ítem de Configuración (Ruta de Activos de Procesos, Ruta de los Registros y Código - Libro Ítems)</t>
+  </si>
+  <si>
+    <t>Cambiar nomenclatura del documento (Modificar título del Documento y tipo (de .PDF a .docx))</t>
+  </si>
+  <si>
+    <t>Cambiar documento a formato de documentos del proyecto</t>
+  </si>
+  <si>
+    <t>ACREVPRO_Acta de Revisión de Plan de Proyecto</t>
+  </si>
+  <si>
+    <t>PGREQM_Proceso de Gestión de Requerimientos</t>
+  </si>
+  <si>
+    <t>DANA_Documento de Análisis</t>
+  </si>
+  <si>
+    <t>GUINSTALL_Guia de Instalación</t>
+  </si>
+  <si>
+    <t>HGQA_Herramienta Gestión de Aseguramiento de Calidad</t>
+  </si>
+  <si>
+    <t>PGC_Proceso de Gestión de Configuración</t>
+  </si>
+  <si>
+    <t>REGITCON_Registro de Ítems de Configuración</t>
+  </si>
+  <si>
+    <t>PROMM_Proceso de Medición de Métrica</t>
+  </si>
+  <si>
+    <t>TABM_Tablero de Métricas</t>
+  </si>
+  <si>
+    <t>FMNCONQAP_Ficha de Métricas de N Conformidades QA de Producto</t>
+  </si>
+  <si>
+    <t>FMVREQM_Ficha de Métricas de Volatilidad de Requerimientos</t>
+  </si>
+  <si>
+    <t>FMICIC_Ficha de Métrica de Índice de Cambios en Ítems de Configuración</t>
+  </si>
+  <si>
+    <t>FMEXRI_Ficha de Métrica de Exposición al Riesgo</t>
+  </si>
+  <si>
+    <t>AREXT_Acta de reunión Externa</t>
+  </si>
+  <si>
+    <t>ARINT_Actas de Reunión Quincenal</t>
+  </si>
+  <si>
+    <t>ACENTRE_Acta de Aceptación  de Entregables</t>
+  </si>
+  <si>
+    <t>PGPROY_Proceso de Gestión</t>
+  </si>
+  <si>
     <t>Clasificación de la disconformidad.
-Estandar: No cumple con el estandar.
-Control de Configuración: No Cumple con la nomenclatura  ni con la ruta en la lista de Items de configuración.</t>
-  </si>
-  <si>
-    <t>C. Esfuerzo invertido en revisiones de QA.</t>
-  </si>
-  <si>
-    <t>Duración Planificada</t>
-  </si>
-  <si>
-    <t>Duración Real</t>
-  </si>
-  <si>
-    <t>Revisado / Analista Responsable</t>
-  </si>
-  <si>
-    <t>Revisado Analista responsable</t>
-  </si>
-  <si>
-    <t>Tipo Proyecto</t>
-  </si>
-  <si>
-    <t>Tipo de Proyecto</t>
-  </si>
-  <si>
-    <t>Entregable</t>
-  </si>
-  <si>
-    <t>Nombre del entregable revisado</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Nro. de Revisión</t>
-  </si>
-  <si>
-    <t>D. Resumen por Origen de NC</t>
-  </si>
-  <si>
-    <t>Documento</t>
-  </si>
-  <si>
-    <t>Funcionalidad</t>
-  </si>
-  <si>
-    <t>Base de Datos</t>
-  </si>
-  <si>
-    <t>Desarrollo de Sistemas</t>
-  </si>
-  <si>
-    <t>Revisado / Auditado</t>
-  </si>
-  <si>
-    <t>Responsable (s) de levantar no conformidad</t>
-  </si>
-  <si>
-    <t>Entregable / Proceso revisado</t>
-  </si>
-  <si>
-    <t>Entregable / Proceso</t>
-  </si>
-  <si>
-    <t>Proceso</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HGPRD_0.1_2014 REVISIÓN DE ASEGURAMIENTO DE LA CALIDAD - PRODUCTO</t>
-  </si>
-  <si>
-    <t>PPQA</t>
-  </si>
-  <si>
-    <t>PP_PMC</t>
-  </si>
-  <si>
-    <t>REQM</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Jefe de Proyecto:</t>
-  </si>
-  <si>
-    <t>PGC_Proceso de Gestion de Configuracion</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Julio Leonardo Paredes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTP-GPS-ALARM </t>
-  </si>
-  <si>
-    <t>Analista de Calidad</t>
-  </si>
-  <si>
-    <t>OCTUBRE</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>Gaspar</t>
-  </si>
-  <si>
-    <t>Roger</t>
-  </si>
-  <si>
-    <t>Revisores y/o Revisados</t>
-  </si>
-  <si>
-    <t>Entregables y Procesos</t>
-  </si>
-  <si>
-    <t>PPROY_Plan de Proyecto</t>
-  </si>
-  <si>
-    <t>REGRI_Registro de Riesgos</t>
-  </si>
-  <si>
-    <t>LMREQM_Lista Maestra de Requerimientos</t>
-  </si>
-  <si>
-    <t>SOLACC_Solicitud de Accesos</t>
-  </si>
-  <si>
-    <t>CPROY_Cronograma de Proyecto</t>
-  </si>
-  <si>
-    <t>RCREQM_Registro de Cambios a Requerimientos</t>
-  </si>
-  <si>
-    <t>SOLCREQ_Solicitud de Cambios a Requerimientos</t>
-  </si>
-  <si>
-    <t>AREXT_Acta de reunion Externa</t>
-  </si>
-  <si>
-    <t>REGITCON_Registro de Items de Configuracion</t>
-  </si>
-  <si>
-    <t>MTREQM_Matriz Trazabilidad de Requerimientos</t>
-  </si>
-  <si>
-    <t>PGREQM_Proceso de Gestion de Requerimientos</t>
-  </si>
-  <si>
-    <t>DANA_Documento de Analisis</t>
-  </si>
-  <si>
-    <t>MANUSER_Manual de Usuario</t>
-  </si>
-  <si>
-    <t>GUINSTALL_Guia de Instalacion</t>
-  </si>
-  <si>
-    <t>HORAS PROGRAMADAS PARA REVISIÓN</t>
-  </si>
-  <si>
-    <t>HORAS INVERTIDAS EN REVISIÓN</t>
-  </si>
-  <si>
-    <t>PGPROY_Proceso de Gestion</t>
-  </si>
-  <si>
-    <t>ACREVPRO_Acta de Revision de Plan de Proyecto</t>
-  </si>
-  <si>
-    <t>ACCPRO_Acta de Cierre de Proyecto</t>
-  </si>
-  <si>
-    <t>ACREPRO_Acta de Relatorio de Proyecto</t>
-  </si>
-  <si>
-    <t>ASCR_Acta de Solicitud de Cambios a Requerimientos</t>
-  </si>
-  <si>
-    <t>INPRUIN_Informe de Pruebas Internas</t>
-  </si>
-  <si>
-    <t>IAUDICM_Informe de Auditoria de CM</t>
-  </si>
-  <si>
-    <t>FMVREQM_Ficha de Metricas de Volatilidad de Requerimientos</t>
-  </si>
-  <si>
-    <t>FMICIC_Ficha de Metrica de Indice de Cambios en Items de Configuracion</t>
-  </si>
-  <si>
-    <t>FMEXRI_Ficha de Metrica de Exposicion al Riesgo</t>
-  </si>
-  <si>
-    <t>IAQUIN_Informe Avance Quincenal</t>
-  </si>
-  <si>
-    <t>ARINT_Actas de Reunion Quincenal</t>
-  </si>
-  <si>
-    <t>ACENTRE_Acta de Aceptacion  de Entregables</t>
-  </si>
-  <si>
-    <t>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</t>
-  </si>
-  <si>
-    <t>Roger Apaéstegui Ortega</t>
-  </si>
-  <si>
-    <t>No se encontraron No Conformidades</t>
-  </si>
-  <si>
-    <t>Corrección de Errores Ortográficos en Inciso 5.2</t>
-  </si>
-  <si>
-    <t>Reestructurar Tareas y cambiar definiciones en el Proceso de Gestión e Ingeniería</t>
-  </si>
-  <si>
-    <t>Definir nuevos riesgos que aún no estan contemplados y son de importancia en el Proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir indice y numeración de subtemas desarrollados en el documento </t>
-  </si>
-  <si>
-    <t>Especificar mayor número de aspectos a auditar por documento</t>
-  </si>
-  <si>
-    <t>Especificar el Acceso de Solo Lectura al Cliente (MST E.I.R.L)</t>
-  </si>
-  <si>
-    <t>PROY</t>
-  </si>
-  <si>
-    <t>DDIS_Documento de Diseño</t>
-  </si>
-  <si>
-    <t>PQA_Proceso de Aseguramiento de Calidad</t>
-  </si>
-  <si>
-    <t>HGQA_Herramienta Gestion de Aseguramiento de Calidad</t>
-  </si>
-  <si>
-    <t>INREQA_Informe de Revisión General de Aseguramiento de Calidad</t>
-  </si>
-  <si>
-    <t>SOLQA_Solicitud de Aseguramiento de Calidad</t>
-  </si>
-  <si>
-    <t>CHKQA_CheckList de Aseguramiento de Calidad</t>
-  </si>
-  <si>
-    <t>ICIC_Indice Cambios Items de Configuracion</t>
-  </si>
-  <si>
-    <t>PROMM_Proceso de Medicion de Metrica</t>
-  </si>
-  <si>
-    <t>TABM_Tablero de Metricas</t>
-  </si>
-  <si>
-    <t>FMNCONQAP_Ficha de Metricas de N Conformidades QA de Producto</t>
-  </si>
-  <si>
-    <t>INPRUEX_Informe de Pruebas Externas</t>
-  </si>
-  <si>
-    <t>Ajustar documento a formato de documentos del proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir indice y numeración de subtemas en el documento </t>
-  </si>
-  <si>
-    <t>Cambiar documento a fomato de documentos del proyecto</t>
-  </si>
-  <si>
-    <t>HGQA_V1.0_2015 Herramienta de Gestión QA-Producto</t>
-  </si>
-  <si>
-    <t>Fecha Efectiva: 20/10/2015</t>
-  </si>
-  <si>
-    <t>Nombre del Jefe de Proyecto</t>
-  </si>
-  <si>
-    <t>Nombre del Analista de Calidad</t>
-  </si>
-  <si>
-    <t>Solucionado 24/10/2015</t>
-  </si>
-  <si>
-    <t>Actualizar Datos Modificados en Fases de Desarrollo (Entregables), los WBS de Gestión e Ingeniería (Entregables) y la Nomenclatura (Documentación) -Todo el Inciso 7 (Actualización de Entregables), Inciso 9.41(Actualización de Documentación y Nomenclatura)</t>
-  </si>
-  <si>
-    <t>Ajustar Gráficas a formato de los documentos del proyecto (Inciso 5.1 Página 14 : Gráfica del Subproceso de Gestión de Cambios a Requerimientos)</t>
-  </si>
-  <si>
-    <t>Actualizar datos acordes a la solicitud de cambio de requerimientos del proyecto (Libro Requerimientos de Usuario)</t>
-  </si>
-  <si>
-    <t>Actualizar datos acordes a la solicitud de cambio de requerimientos del proyecto (Libro Trazabilidad REQ a Doc. GC)</t>
-  </si>
-  <si>
-    <t>Actualizar datos de Item de Configuración (Ruta de Activos de Procesos, Ruta de los Registros y Código - Libro Items)</t>
-  </si>
-  <si>
-    <t>Cambiar nomenclatura del documento (Modificar título del Documento y tipo (de .pdf a .docx))</t>
-  </si>
-  <si>
-    <t>Mayor tiempo del Planificado</t>
-  </si>
-  <si>
-    <t>Planificación y Ejecución Conforme</t>
-  </si>
-  <si>
-    <t>Nro.</t>
-  </si>
-  <si>
-    <t>Aprobado</t>
-  </si>
-  <si>
-    <t>Documento en elaboración</t>
+Estándar: No cumple con el estándar.
+Control de Configuración: No Cumple con la nomenclatura  ni con la ruta en la lista de Ítems de configuración.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
   </numFmts>
-  <fonts count="66">
+  <fonts count="65">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1195,13 +1246,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2341,13 +2385,13 @@
     <xf numFmtId="0" fontId="59" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2381,58 +2425,58 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="63" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="64" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="63" fillId="0" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2450,10 +2494,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="65" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="64" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2501,7 +2545,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2547,102 +2591,142 @@
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2652,46 +2736,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="30" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="31" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2704,22 +2748,61 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="34" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2730,45 +2813,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="55" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="24" borderId="34" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2791,7 +2835,7 @@
     <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="19" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="19" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
@@ -2846,7 +2890,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2882,6 +2926,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2904,7 +2949,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2994,7 +3039,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-1E45-479F-AB83-77D83B7E851D}"/>
               </c:ext>
@@ -3039,7 +3084,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-EC92-482A-AE00-7DAF384C4D3C}"/>
               </c:ext>
@@ -3068,7 +3113,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3091,8 +3136,10 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3104,7 +3151,7 @@
                   <c:v>Nro. De revisiones no Ejecutadas</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Nro de revisiones Ejecutadas:</c:v>
+                  <c:v>Nro. de revisiones Ejecutadas:</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3124,7 +3171,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EC92-482A-AE00-7DAF384C4D3C}"/>
             </c:ext>
@@ -3150,6 +3197,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3172,7 +3220,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3207,7 +3255,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3219,7 +3267,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3255,6 +3303,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3277,7 +3326,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3367,7 +3416,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3412,7 +3461,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3457,7 +3506,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3502,7 +3551,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3547,7 +3596,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
               </c:ext>
@@ -3592,7 +3641,7 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-9B85-4785-897E-BF8A635C112A}"/>
               </c:ext>
@@ -3613,10 +3662,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-0716-432A-8A0E-B7A5A8092E4A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3634,10 +3685,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0716-432A-8A0E-B7A5A8092E4A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3655,10 +3708,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0716-432A-8A0E-B7A5A8092E4A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3676,10 +3731,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-0716-432A-8A0E-B7A5A8092E4A}"/>
+                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3705,7 +3762,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3715,8 +3772,10 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3772,7 +3831,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-0716-432A-8A0E-B7A5A8092E4A}"/>
             </c:ext>
@@ -3830,7 +3889,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3865,7 +3924,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3877,7 +3936,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3943,7 +4002,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3992,7 +4051,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D90A-429B-8317-E4DDE4E6EB04}"/>
               </c:ext>
@@ -4020,7 +4079,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4031,7 +4090,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4066,7 +4125,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D90A-429B-8317-E4DDE4E6EB04}"/>
             </c:ext>
@@ -4082,11 +4141,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="208494880"/>
-        <c:axId val="208495272"/>
+        <c:axId val="207537304"/>
+        <c:axId val="207538480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208494880"/>
+        <c:axId val="207537304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4123,10 +4182,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208495272"/>
+        <c:crossAx val="207538480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4136,7 +4195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208495272"/>
+        <c:axId val="207538480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4181,10 +4240,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208494880"/>
+        <c:crossAx val="207537304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4220,7 +4279,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4255,7 +4314,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4267,7 +4326,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4325,7 +4384,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4449,7 +4508,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4518,7 +4577,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4587,7 +4646,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7ADE-45C5-8A1C-7D75887A8429}"/>
             </c:ext>
@@ -4603,12 +4662,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="247024288"/>
-        <c:axId val="247023504"/>
+        <c:axId val="207536912"/>
+        <c:axId val="207537696"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="247024288"/>
+        <c:axId val="207536912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4659,7 +4718,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4694,10 +4753,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247023504"/>
+        <c:crossAx val="207537696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4707,7 +4766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247023504"/>
+        <c:axId val="207537696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4780,7 +4839,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4809,10 +4868,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247024288"/>
+        <c:crossAx val="207536912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4848,7 +4907,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4883,7 +4942,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6957,6 +7016,152 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1659948</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="485775" y="171450"/>
+          <a:ext cx="1374198" cy="1003621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>108409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5057775" y="142875"/>
+          <a:ext cx="904875" cy="660859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -7003,10 +7208,78 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>201083</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>89958</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>745526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5048250" y="84667"/>
+          <a:ext cx="904875" cy="660859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7134,6 +7407,74 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1000125" y="57150"/>
+          <a:ext cx="581025" cy="424341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7499,7 +7840,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7529,7 +7870,7 @@
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="61"/>
       <c r="B2" s="196" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="196"/>
       <c r="D2" s="196"/>
@@ -7553,25 +7894,25 @@
     <row r="4" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
       <c r="A4" s="61"/>
       <c r="B4" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="H4" s="65" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="65" t="s">
-        <v>68</v>
       </c>
       <c r="I4" s="61"/>
     </row>
@@ -7581,22 +7922,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="189" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D5" s="190">
         <v>42313</v>
       </c>
       <c r="E5" s="191" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F5" s="191" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G5" s="192" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H5" s="193" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I5" s="187"/>
     </row>
@@ -7669,8 +8010,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61:E61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7684,42 +8025,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="56" customFormat="1" ht="12" customHeight="1"/>
-    <row r="2" spans="1:8" s="56" customFormat="1" ht="48.75" customHeight="1">
+    <row r="2" spans="1:8" s="56" customFormat="1" ht="80.25" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="217" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="218"/>
-      <c r="E2" s="219"/>
+      <c r="C2" s="209" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="210"/>
+      <c r="E2" s="211"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
       <c r="B3" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="225" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="226"/>
-      <c r="E3" s="227"/>
+        <v>89</v>
+      </c>
+      <c r="C3" s="217" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="218"/>
+      <c r="E3" s="219"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" s="59" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="60"/>
       <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="220" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="221"/>
-      <c r="D5" s="221"/>
-      <c r="E5" s="222"/>
+      <c r="B5" s="212" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="214"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -7731,7 +8072,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="34"/>
       <c r="B7" s="45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -7739,13 +8080,13 @@
     <row r="8" spans="1:8">
       <c r="A8" s="34"/>
       <c r="B8" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="223" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="224"/>
+      <c r="E8" s="216"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -7757,13 +8098,13 @@
     <row r="10" spans="1:8" ht="12" customHeight="1">
       <c r="A10" s="34"/>
       <c r="B10" s="88" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="228" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="228"/>
+      <c r="D10" s="223" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="223"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -7775,13 +8116,13 @@
     <row r="12" spans="1:8" ht="12" customHeight="1">
       <c r="A12" s="34"/>
       <c r="B12" s="91" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="228" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="228"/>
+      <c r="D12" s="223" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="223"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -7793,13 +8134,13 @@
     <row r="14" spans="1:8" ht="12" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="92" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="228" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="228"/>
+      <c r="D14" s="223" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="223"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -7811,13 +8152,13 @@
     <row r="16" spans="1:8" ht="12" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="93" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="228" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="228"/>
+      <c r="D16" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="223"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -7831,62 +8172,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="211" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="213"/>
+      <c r="B19" s="203" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="204"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="205"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="214" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="216"/>
+        <v>66</v>
+      </c>
+      <c r="C20" s="206" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="207"/>
+      <c r="E20" s="208"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="202" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="204"/>
+        <v>44</v>
+      </c>
+      <c r="C21" s="220" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="221"/>
+      <c r="E21" s="222"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="220" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="202" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="203"/>
-      <c r="E22" s="204"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="222"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="202" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="203"/>
-      <c r="E23" s="204"/>
+        <v>2</v>
+      </c>
+      <c r="C23" s="220" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="221"/>
+      <c r="E23" s="222"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="202" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="203"/>
-      <c r="E24" s="204"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="222"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -7899,83 +8240,83 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="211" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="212"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="213"/>
+      <c r="B27" s="203" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="204"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="205"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="214" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="215"/>
-      <c r="E28" s="216"/>
+        <v>66</v>
+      </c>
+      <c r="C28" s="206" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="207"/>
+      <c r="E28" s="208"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="208" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="209"/>
-      <c r="D29" s="209"/>
-      <c r="E29" s="210"/>
+      <c r="B29" s="224" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="225"/>
+      <c r="D29" s="225"/>
+      <c r="E29" s="226"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="32"/>
       <c r="B30" s="165" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="198" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="199"/>
-      <c r="E30" s="200"/>
+        <v>128</v>
+      </c>
+      <c r="C30" s="197" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="198"/>
+      <c r="E30" s="199"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="32"/>
       <c r="B31" s="166" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="198" t="s">
-        <v>202</v>
-      </c>
-      <c r="D31" s="199"/>
-      <c r="E31" s="200"/>
+        <v>133</v>
+      </c>
+      <c r="C31" s="197" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="198"/>
+      <c r="E31" s="199"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1">
       <c r="A32" s="32"/>
       <c r="B32" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="198" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="199"/>
-      <c r="E32" s="200"/>
+        <v>8</v>
+      </c>
+      <c r="C32" s="197" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="198"/>
+      <c r="E32" s="199"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" customHeight="1">
       <c r="A33" s="32"/>
       <c r="B33" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="198" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="199"/>
-      <c r="E33" s="200"/>
+        <v>20</v>
+      </c>
+      <c r="C33" s="197" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="198"/>
+      <c r="E33" s="199"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -7984,174 +8325,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="198" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="199"/>
-      <c r="E34" s="200"/>
+      <c r="C34" s="197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="198"/>
+      <c r="E34" s="199"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="198" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="199"/>
-      <c r="E35" s="200"/>
+        <v>21</v>
+      </c>
+      <c r="C35" s="197" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="198"/>
+      <c r="E35" s="199"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="208" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="209"/>
-      <c r="D36" s="209"/>
-      <c r="E36" s="210"/>
+      <c r="B36" s="224" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="225"/>
+      <c r="D36" s="225"/>
+      <c r="E36" s="226"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="198" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="199"/>
-      <c r="E37" s="200"/>
+        <v>30</v>
+      </c>
+      <c r="C37" s="197" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="198"/>
+      <c r="E37" s="199"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="198" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="199"/>
-      <c r="E38" s="200"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="197" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="198"/>
+      <c r="E38" s="199"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="198" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="199"/>
-      <c r="E39" s="200"/>
+        <v>97</v>
+      </c>
+      <c r="C39" s="197" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="198"/>
+      <c r="E39" s="199"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="198" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="199"/>
-      <c r="E40" s="200"/>
+        <v>109</v>
+      </c>
+      <c r="C40" s="197" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="198"/>
+      <c r="E40" s="199"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="198" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="199"/>
-      <c r="E41" s="200"/>
+      <c r="C41" s="197" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="198"/>
+      <c r="E41" s="199"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="198" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="199"/>
-      <c r="E42" s="200"/>
+        <v>3</v>
+      </c>
+      <c r="C42" s="197" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="198" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="199"/>
-      <c r="E43" s="200"/>
+        <v>53</v>
+      </c>
+      <c r="C43" s="197" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="198"/>
+      <c r="E43" s="199"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="198" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="199"/>
-      <c r="E44" s="200"/>
+        <v>54</v>
+      </c>
+      <c r="C44" s="197" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="198"/>
+      <c r="E44" s="199"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="198" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="199"/>
-      <c r="E45" s="200"/>
+        <v>13</v>
+      </c>
+      <c r="C45" s="197" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="198"/>
+      <c r="E45" s="199"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="198" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="199"/>
-      <c r="E46" s="200"/>
+        <v>55</v>
+      </c>
+      <c r="C46" s="197" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="198"/>
+      <c r="E46" s="199"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="198" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="199"/>
-      <c r="E47" s="200"/>
+        <v>56</v>
+      </c>
+      <c r="C47" s="197" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="198"/>
+      <c r="E47" s="199"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="198" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" s="199"/>
-      <c r="E48" s="200"/>
+        <v>14</v>
+      </c>
+      <c r="C48" s="197" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="198"/>
+      <c r="E48" s="199"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" s="198" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="199"/>
-      <c r="E49" s="200"/>
+        <v>111</v>
+      </c>
+      <c r="C49" s="197" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="198"/>
+      <c r="E49" s="199"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
@@ -8184,23 +8525,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="211" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="212"/>
-      <c r="D52" s="212"/>
-      <c r="E52" s="213"/>
+      <c r="B52" s="203" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="204"/>
+      <c r="D52" s="204"/>
+      <c r="E52" s="205"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="214" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="215"/>
-      <c r="E53" s="216"/>
+        <v>43</v>
+      </c>
+      <c r="C53" s="206" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="207"/>
+      <c r="E53" s="208"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -8213,134 +8554,134 @@
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="32"/>
       <c r="B54" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="198" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="199"/>
-      <c r="E54" s="200"/>
+        <v>112</v>
+      </c>
+      <c r="C54" s="197" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="198"/>
+      <c r="E54" s="199"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="198" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="199"/>
-      <c r="E55" s="200"/>
+        <v>108</v>
+      </c>
+      <c r="C55" s="197" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="198"/>
+      <c r="E55" s="199"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="198" t="s">
-        <v>87</v>
-      </c>
-      <c r="D56" s="199"/>
-      <c r="E56" s="200"/>
+        <v>80</v>
+      </c>
+      <c r="C56" s="197" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="198"/>
+      <c r="E56" s="199"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="198" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" s="205"/>
-      <c r="E57" s="206"/>
+        <v>106</v>
+      </c>
+      <c r="C57" s="197" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="201"/>
+      <c r="E57" s="202"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="198" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="205"/>
-      <c r="E58" s="206"/>
+        <v>22</v>
+      </c>
+      <c r="C58" s="197" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="201"/>
+      <c r="E58" s="202"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="198" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="205"/>
-      <c r="E59" s="206"/>
+        <v>84</v>
+      </c>
+      <c r="C59" s="197" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="201"/>
+      <c r="E59" s="202"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="198" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" s="205"/>
-      <c r="E60" s="206"/>
+        <v>33</v>
+      </c>
+      <c r="C60" s="197" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="201"/>
+      <c r="E60" s="202"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="207" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="205"/>
-      <c r="E61" s="206"/>
+        <v>51</v>
+      </c>
+      <c r="C61" s="200" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="201"/>
+      <c r="E61" s="202"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="198" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="205"/>
-      <c r="E62" s="206"/>
+        <v>26</v>
+      </c>
+      <c r="C62" s="197" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="201"/>
+      <c r="E62" s="202"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="207" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="205"/>
-      <c r="E63" s="206"/>
+        <v>27</v>
+      </c>
+      <c r="C63" s="200" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="201"/>
+      <c r="E63" s="202"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="207" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="205"/>
-      <c r="E64" s="206"/>
+        <v>28</v>
+      </c>
+      <c r="C64" s="200" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="201"/>
+      <c r="E64" s="202"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="198" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" s="199"/>
-      <c r="E65" s="200"/>
+        <v>94</v>
+      </c>
+      <c r="C65" s="197" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="198"/>
+      <c r="E65" s="199"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -8351,200 +8692,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="201"/>
-      <c r="C67" s="201"/>
-      <c r="D67" s="201"/>
-      <c r="E67" s="201"/>
+      <c r="B67" s="228"/>
+      <c r="C67" s="228"/>
+      <c r="D67" s="228"/>
+      <c r="E67" s="228"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="197"/>
-      <c r="C68" s="197"/>
-      <c r="D68" s="197"/>
-      <c r="E68" s="197"/>
+      <c r="B68" s="227"/>
+      <c r="C68" s="227"/>
+      <c r="D68" s="227"/>
+      <c r="E68" s="227"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="197"/>
-      <c r="C69" s="197"/>
-      <c r="D69" s="197"/>
-      <c r="E69" s="197"/>
+      <c r="B69" s="227"/>
+      <c r="C69" s="227"/>
+      <c r="D69" s="227"/>
+      <c r="E69" s="227"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="197"/>
-      <c r="C70" s="197"/>
-      <c r="D70" s="197"/>
-      <c r="E70" s="197"/>
+      <c r="B70" s="227"/>
+      <c r="C70" s="227"/>
+      <c r="D70" s="227"/>
+      <c r="E70" s="227"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="197"/>
-      <c r="C71" s="197"/>
-      <c r="D71" s="197"/>
-      <c r="E71" s="197"/>
+      <c r="B71" s="227"/>
+      <c r="C71" s="227"/>
+      <c r="D71" s="227"/>
+      <c r="E71" s="227"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="197"/>
-      <c r="C72" s="197"/>
-      <c r="D72" s="197"/>
-      <c r="E72" s="197"/>
+      <c r="B72" s="227"/>
+      <c r="C72" s="227"/>
+      <c r="D72" s="227"/>
+      <c r="E72" s="227"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="197"/>
-      <c r="C73" s="197"/>
-      <c r="D73" s="197"/>
-      <c r="E73" s="197"/>
+      <c r="B73" s="227"/>
+      <c r="C73" s="227"/>
+      <c r="D73" s="227"/>
+      <c r="E73" s="227"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="197"/>
-      <c r="C74" s="197"/>
-      <c r="D74" s="197"/>
-      <c r="E74" s="197"/>
+      <c r="B74" s="227"/>
+      <c r="C74" s="227"/>
+      <c r="D74" s="227"/>
+      <c r="E74" s="227"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="197"/>
-      <c r="C75" s="197"/>
-      <c r="D75" s="197"/>
-      <c r="E75" s="197"/>
+      <c r="B75" s="227"/>
+      <c r="C75" s="227"/>
+      <c r="D75" s="227"/>
+      <c r="E75" s="227"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="197"/>
-      <c r="C76" s="197"/>
-      <c r="D76" s="197"/>
-      <c r="E76" s="197"/>
+      <c r="B76" s="227"/>
+      <c r="C76" s="227"/>
+      <c r="D76" s="227"/>
+      <c r="E76" s="227"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="197"/>
-      <c r="C77" s="197"/>
-      <c r="D77" s="197"/>
-      <c r="E77" s="197"/>
+      <c r="B77" s="227"/>
+      <c r="C77" s="227"/>
+      <c r="D77" s="227"/>
+      <c r="E77" s="227"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="197"/>
-      <c r="C78" s="197"/>
-      <c r="D78" s="197"/>
-      <c r="E78" s="197"/>
+      <c r="B78" s="227"/>
+      <c r="C78" s="227"/>
+      <c r="D78" s="227"/>
+      <c r="E78" s="227"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="197"/>
-      <c r="C79" s="197"/>
-      <c r="D79" s="197"/>
-      <c r="E79" s="197"/>
+      <c r="B79" s="227"/>
+      <c r="C79" s="227"/>
+      <c r="D79" s="227"/>
+      <c r="E79" s="227"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="197"/>
-      <c r="C80" s="197"/>
-      <c r="D80" s="197"/>
-      <c r="E80" s="197"/>
+      <c r="B80" s="227"/>
+      <c r="C80" s="227"/>
+      <c r="D80" s="227"/>
+      <c r="E80" s="227"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="197"/>
-      <c r="C81" s="197"/>
-      <c r="D81" s="197"/>
-      <c r="E81" s="197"/>
+      <c r="B81" s="227"/>
+      <c r="C81" s="227"/>
+      <c r="D81" s="227"/>
+      <c r="E81" s="227"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="197"/>
-      <c r="C82" s="197"/>
-      <c r="D82" s="197"/>
-      <c r="E82" s="197"/>
+      <c r="B82" s="227"/>
+      <c r="C82" s="227"/>
+      <c r="D82" s="227"/>
+      <c r="E82" s="227"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="197"/>
-      <c r="C83" s="197"/>
-      <c r="D83" s="197"/>
-      <c r="E83" s="197"/>
+      <c r="B83" s="227"/>
+      <c r="C83" s="227"/>
+      <c r="D83" s="227"/>
+      <c r="E83" s="227"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="197"/>
-      <c r="C84" s="197"/>
-      <c r="D84" s="197"/>
-      <c r="E84" s="197"/>
+      <c r="B84" s="227"/>
+      <c r="C84" s="227"/>
+      <c r="D84" s="227"/>
+      <c r="E84" s="227"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="197"/>
-      <c r="C85" s="197"/>
-      <c r="D85" s="197"/>
-      <c r="E85" s="197"/>
+      <c r="B85" s="227"/>
+      <c r="C85" s="227"/>
+      <c r="D85" s="227"/>
+      <c r="E85" s="227"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="197"/>
-      <c r="C86" s="197"/>
-      <c r="D86" s="197"/>
-      <c r="E86" s="197"/>
+      <c r="B86" s="227"/>
+      <c r="C86" s="227"/>
+      <c r="D86" s="227"/>
+      <c r="E86" s="227"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -8557,40 +8898,27 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -8607,32 +8935,46 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8643,8 +8985,8 @@
   </sheetPr>
   <dimension ref="A3:Z54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -8666,22 +9008,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="229" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="229"/>
+      <c r="B3" s="239" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
+      <c r="N3" s="239"/>
+      <c r="O3" s="239"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -8689,39 +9031,39 @@
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1"/>
     <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="231" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="232"/>
-      <c r="D6" s="233"/>
-      <c r="E6" s="234" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="236"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
+      <c r="B6" s="230" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="231"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="233" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="234"/>
+      <c r="G6" s="235"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
       <c r="O6" s="143"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="231" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="232"/>
-      <c r="D7" s="233"/>
-      <c r="E7" s="234" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="235"/>
-      <c r="G7" s="236"/>
-      <c r="J7" s="237" t="s">
-        <v>160</v>
-      </c>
-      <c r="K7" s="237"/>
-      <c r="L7" s="237"/>
-      <c r="M7" s="237"/>
-      <c r="N7" s="237"/>
+      <c r="B7" s="230" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="231"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="233" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="234"/>
+      <c r="G7" s="235"/>
+      <c r="J7" s="229" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
       <c r="O7" s="164">
         <f>SUM(K13:K49)</f>
         <v>85</v>
@@ -8729,23 +9071,23 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="231" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="232"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="234" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="235"/>
-      <c r="G8" s="236"/>
-      <c r="J8" s="237" t="s">
-        <v>161</v>
-      </c>
-      <c r="K8" s="237"/>
-      <c r="L8" s="237"/>
-      <c r="M8" s="237"/>
-      <c r="N8" s="237"/>
+      <c r="B8" s="230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="231"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="233" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="234"/>
+      <c r="G8" s="235"/>
+      <c r="J8" s="229" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="229"/>
+      <c r="L8" s="229"/>
+      <c r="M8" s="229"/>
+      <c r="N8" s="229"/>
       <c r="O8" s="164">
         <f>SUM(N13:N49)</f>
         <v>89</v>
@@ -8753,16 +9095,16 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="231" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="232"/>
-      <c r="D9" s="233"/>
+      <c r="B9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="231"/>
+      <c r="D9" s="232"/>
       <c r="E9" s="126">
         <v>42290</v>
       </c>
       <c r="F9" s="94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="122">
         <v>42304</v>
@@ -8772,16 +9114,16 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="231" t="s">
+      <c r="B10" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="232"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="238" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="239"/>
-      <c r="G10" s="240"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="232"/>
+      <c r="E10" s="236" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="237"/>
+      <c r="G10" s="238"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -8794,46 +9136,46 @@
     </row>
     <row r="12" spans="2:26" s="121" customFormat="1" ht="38.25">
       <c r="B12" s="118" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C12" s="118" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="84" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E12" s="119" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G12" s="119" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H12" s="119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="120" t="s">
+      <c r="K12" s="120" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="120" t="s">
+      <c r="M12" s="120" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="120" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="120" t="s">
-        <v>15</v>
-      </c>
       <c r="O12" s="120" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -8844,19 +9186,19 @@
         <v>2</v>
       </c>
       <c r="D13" s="156" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E13" s="157" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F13" s="158" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="G13" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H13" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I13" s="167">
         <v>42290</v>
@@ -8877,7 +9219,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -8889,19 +9231,19 @@
         <v>2</v>
       </c>
       <c r="D14" s="156" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E14" s="157" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F14" s="158" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G14" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H14" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I14" s="167">
         <v>42290</v>
@@ -8922,7 +9264,7 @@
         <v>3</v>
       </c>
       <c r="O14" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -8934,19 +9276,19 @@
         <v>2</v>
       </c>
       <c r="D15" s="156" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E15" s="157" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F15" s="159" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="G15" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H15" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I15" s="167">
         <v>42290</v>
@@ -8967,7 +9309,7 @@
         <v>3</v>
       </c>
       <c r="O15" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="2:26" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -8979,19 +9321,19 @@
         <v>2</v>
       </c>
       <c r="D16" s="156" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E16" s="157" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F16" s="158" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G16" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H16" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I16" s="167">
         <v>42291</v>
@@ -9012,7 +9354,7 @@
         <v>3</v>
       </c>
       <c r="O16" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9024,19 +9366,19 @@
         <v>2</v>
       </c>
       <c r="D17" s="156" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E17" s="157" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F17" s="158" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G17" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H17" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I17" s="167">
         <v>42291</v>
@@ -9059,7 +9401,7 @@
         <v>2.5</v>
       </c>
       <c r="O17" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9071,19 +9413,19 @@
         <v>2</v>
       </c>
       <c r="D18" s="156" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E18" s="157" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F18" s="158" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G18" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H18" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I18" s="167">
         <v>42291</v>
@@ -9104,7 +9446,7 @@
         <v>3</v>
       </c>
       <c r="O18" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9116,19 +9458,19 @@
         <v>2</v>
       </c>
       <c r="D19" s="156" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E19" s="157" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F19" s="158" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G19" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H19" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I19" s="167">
         <v>42291</v>
@@ -9149,7 +9491,7 @@
         <v>1.5</v>
       </c>
       <c r="O19" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9161,19 +9503,19 @@
         <v>1</v>
       </c>
       <c r="D20" s="156" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E20" s="157" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F20" s="158" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="G20" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H20" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I20" s="167">
         <v>42292</v>
@@ -9194,7 +9536,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9206,19 +9548,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E21" s="157" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F21" s="158" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G21" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H21" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I21" s="167">
         <v>42292</v>
@@ -9239,7 +9581,7 @@
         <v>1.5</v>
       </c>
       <c r="O21" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9251,19 +9593,19 @@
         <v>1</v>
       </c>
       <c r="D22" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E22" s="157" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F22" s="159" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G22" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H22" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I22" s="167">
         <v>42292</v>
@@ -9284,7 +9626,7 @@
         <v>2.5</v>
       </c>
       <c r="O22" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9296,19 +9638,19 @@
         <v>1</v>
       </c>
       <c r="D23" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E23" s="157" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F23" s="159" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G23" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H23" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I23" s="167">
         <v>42292</v>
@@ -9329,7 +9671,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9341,19 +9683,19 @@
         <v>1</v>
       </c>
       <c r="D24" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E24" s="157" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F24" s="159" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G24" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H24" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I24" s="167">
         <v>42293</v>
@@ -9374,7 +9716,7 @@
         <v>3</v>
       </c>
       <c r="O24" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9386,19 +9728,19 @@
         <v>1</v>
       </c>
       <c r="D25" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E25" s="157" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F25" s="159" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G25" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H25" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I25" s="167">
         <v>42293</v>
@@ -9419,7 +9761,7 @@
         <v>3</v>
       </c>
       <c r="O25" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9431,19 +9773,19 @@
         <v>1</v>
       </c>
       <c r="D26" s="156" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E26" s="157" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F26" s="159" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="G26" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H26" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I26" s="167">
         <v>42293</v>
@@ -9464,7 +9806,7 @@
         <v>3</v>
       </c>
       <c r="O26" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9476,19 +9818,19 @@
         <v>1</v>
       </c>
       <c r="D27" s="156" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E27" s="157" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F27" s="184" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G27" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H27" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I27" s="167">
         <v>42293</v>
@@ -9509,7 +9851,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9521,19 +9863,19 @@
         <v>1</v>
       </c>
       <c r="D28" s="156" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E28" s="157" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F28" s="159" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G28" s="163" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H28" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I28" s="167">
         <v>42294</v>
@@ -9554,7 +9896,7 @@
         <v>2.5</v>
       </c>
       <c r="O28" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9567,19 +9909,19 @@
         <v>1</v>
       </c>
       <c r="D29" s="156" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E29" s="157" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F29" s="161" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G29" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H29" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I29" s="167">
         <v>42294</v>
@@ -9600,7 +9942,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9613,19 +9955,19 @@
         <v>1</v>
       </c>
       <c r="D30" s="156" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E30" s="157" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F30" s="159" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G30" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H30" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I30" s="167">
         <v>42294</v>
@@ -9646,7 +9988,7 @@
         <v>1.5</v>
       </c>
       <c r="O30" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9659,19 +10001,19 @@
         <v>1</v>
       </c>
       <c r="D31" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E31" s="157" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F31" s="159" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="G31" s="163" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H31" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I31" s="167">
         <v>42294</v>
@@ -9692,7 +10034,7 @@
         <v>3</v>
       </c>
       <c r="O31" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9705,19 +10047,19 @@
         <v>1</v>
       </c>
       <c r="D32" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E32" s="162" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F32" s="159" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G32" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H32" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I32" s="167">
         <v>42296</v>
@@ -9738,7 +10080,7 @@
         <v>5</v>
       </c>
       <c r="O32" s="183" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9751,19 +10093,19 @@
         <v>1</v>
       </c>
       <c r="D33" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E33" s="162" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F33" s="159" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="G33" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H33" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I33" s="167">
         <v>42297</v>
@@ -9784,7 +10126,7 @@
         <v>5</v>
       </c>
       <c r="O33" s="183" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9797,19 +10139,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E34" s="162" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F34" s="159" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G34" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H34" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I34" s="167">
         <v>42296</v>
@@ -9830,7 +10172,7 @@
         <v>2</v>
       </c>
       <c r="O34" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9843,19 +10185,19 @@
         <v>1</v>
       </c>
       <c r="D35" s="156" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E35" s="162" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F35" s="159" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G35" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H35" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I35" s="167">
         <v>42296</v>
@@ -9876,7 +10218,7 @@
         <v>1.5</v>
       </c>
       <c r="O35" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9889,19 +10231,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E36" s="162" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F36" s="159" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G36" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H36" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I36" s="167">
         <v>42297</v>
@@ -9922,7 +10264,7 @@
         <v>2.5</v>
       </c>
       <c r="O36" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9935,19 +10277,19 @@
         <v>1</v>
       </c>
       <c r="D37" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E37" s="157" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F37" s="159" t="s">
+        <v>219</v>
+      </c>
+      <c r="G37" s="163" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="163" t="s">
         <v>135</v>
-      </c>
-      <c r="G37" s="163" t="s">
-        <v>142</v>
-      </c>
-      <c r="H37" s="163" t="s">
-        <v>141</v>
       </c>
       <c r="I37" s="167">
         <v>42298</v>
@@ -9968,7 +10310,7 @@
         <v>2.5</v>
       </c>
       <c r="O37" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -9981,19 +10323,19 @@
         <v>1</v>
       </c>
       <c r="D38" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E38" s="157" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F38" s="159" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G38" s="163" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H38" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I38" s="167">
         <v>42298</v>
@@ -10014,7 +10356,7 @@
         <v>2</v>
       </c>
       <c r="O38" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10027,19 +10369,19 @@
         <v>1</v>
       </c>
       <c r="D39" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E39" s="157" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F39" s="159" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="G39" s="163" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H39" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I39" s="167">
         <v>42298</v>
@@ -10060,7 +10402,7 @@
         <v>3</v>
       </c>
       <c r="O39" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10073,19 +10415,19 @@
         <v>1</v>
       </c>
       <c r="D40" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E40" s="157" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F40" s="159" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="G40" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H40" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I40" s="167">
         <v>42300</v>
@@ -10106,7 +10448,7 @@
         <v>2</v>
       </c>
       <c r="O40" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10119,19 +10461,19 @@
         <v>1</v>
       </c>
       <c r="D41" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E41" s="157" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F41" s="159" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="G41" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H41" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I41" s="167">
         <v>42300</v>
@@ -10152,7 +10494,7 @@
         <v>1.5</v>
       </c>
       <c r="O41" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10165,19 +10507,19 @@
         <v>1</v>
       </c>
       <c r="D42" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E42" s="157" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F42" s="159" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="G42" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H42" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I42" s="167">
         <v>42301</v>
@@ -10198,7 +10540,7 @@
         <v>3</v>
       </c>
       <c r="O42" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10211,19 +10553,19 @@
         <v>1</v>
       </c>
       <c r="D43" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E43" s="157" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F43" s="159" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="G43" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H43" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I43" s="167">
         <v>42302</v>
@@ -10244,7 +10586,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10257,19 +10599,19 @@
         <v>1</v>
       </c>
       <c r="D44" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E44" s="157" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F44" s="159" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="G44" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H44" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I44" s="167">
         <v>42302</v>
@@ -10290,7 +10632,7 @@
         <v>1.5</v>
       </c>
       <c r="O44" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10303,19 +10645,19 @@
         <v>1</v>
       </c>
       <c r="D45" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E45" s="157" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F45" s="158" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="G45" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H45" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I45" s="167">
         <v>42303</v>
@@ -10336,7 +10678,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10349,19 +10691,19 @@
         <v>1</v>
       </c>
       <c r="D46" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E46" s="157" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F46" s="158" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="G46" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H46" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I46" s="167">
         <v>42304</v>
@@ -10382,7 +10724,7 @@
         <v>1</v>
       </c>
       <c r="O46" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10395,19 +10737,19 @@
         <v>1</v>
       </c>
       <c r="D47" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E47" s="157" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F47" s="158" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G47" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H47" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I47" s="167">
         <v>42304</v>
@@ -10428,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="O47" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10441,19 +10783,19 @@
         <v>1</v>
       </c>
       <c r="D48" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E48" s="157" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F48" s="158" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="G48" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H48" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I48" s="167">
         <v>42304</v>
@@ -10474,7 +10816,7 @@
         <v>2</v>
       </c>
       <c r="O48" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="121" customFormat="1" ht="32.1" customHeight="1">
@@ -10487,19 +10829,19 @@
         <v>1</v>
       </c>
       <c r="D49" s="160" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E49" s="157" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F49" s="158" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="G49" s="163" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H49" s="163" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I49" s="167">
         <v>42304</v>
@@ -10520,7 +10862,7 @@
         <v>1.5</v>
       </c>
       <c r="O49" s="125" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1">
@@ -10551,12 +10893,6 @@
     <row r="54" spans="1:15" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B6:D6"/>
@@ -10564,6 +10900,12 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="E7:G7"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10574,7 +10916,8 @@
   <ignoredErrors>
     <ignoredError sqref="K17" unlockedFormula="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -10614,10 +10957,10 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -10639,7 +10982,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
       <c r="A1" s="241" t="s">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="B1" s="242"/>
       <c r="C1" s="242"/>
@@ -10678,49 +11021,49 @@
     </row>
     <row r="4" spans="1:15" s="24" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="174" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="175" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="176" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="176" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="175" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="175" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="175" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="176" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="176" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="175" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="175" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="175" t="s">
+      <c r="H4" s="176" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="175" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="175" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="175" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="176" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="175" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="175" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" s="175" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="175" t="s">
+      <c r="M4" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="175" t="s">
+      <c r="N4" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="175" t="s">
-        <v>29</v>
-      </c>
       <c r="O4" s="177" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -10748,13 +11091,13 @@
         <v>Julio</v>
       </c>
       <c r="G5" s="112" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H5" s="153" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I5" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J5" s="153" t="str">
         <f>VLOOKUP(A5,Planificación!B$13:H$49,7,FALSE)</f>
@@ -10773,7 +11116,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -10802,13 +11145,13 @@
         <v>Julio</v>
       </c>
       <c r="G6" s="180" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H6" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I6" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J6" s="153" t="str">
         <f>VLOOKUP(A6,Planificación!B$13:H$49,7,FALSE)</f>
@@ -10827,7 +11170,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="60" customHeight="1">
@@ -10856,13 +11199,13 @@
         <v>Julio</v>
       </c>
       <c r="G7" s="95" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H7" s="152" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I7" s="152" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J7" s="153" t="str">
         <f>VLOOKUP(A7,Planificación!B$13:H$49,7,FALSE)</f>
@@ -10908,13 +11251,13 @@
         <v>Julio</v>
       </c>
       <c r="G8" s="112" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H8" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I8" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J8" s="153" t="str">
         <f>VLOOKUP(A8,Planificación!B$13:H$49,7,FALSE)</f>
@@ -10933,7 +11276,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -10962,13 +11305,13 @@
         <v>Julio</v>
       </c>
       <c r="G9" s="112" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="H9" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I9" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J9" s="153" t="str">
         <f>VLOOKUP(A9,Planificación!B$13:H$49,7,FALSE)</f>
@@ -10987,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="60" customHeight="1">
@@ -11016,13 +11359,13 @@
         <v>Julio</v>
       </c>
       <c r="G10" s="95" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H10" s="152" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I10" s="152" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J10" s="153" t="str">
         <f>VLOOKUP(A10,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11068,13 +11411,13 @@
         <v>Julio</v>
       </c>
       <c r="G11" s="95" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H11" s="152" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I11" s="152" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J11" s="153" t="str">
         <f>VLOOKUP(A11,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11120,13 +11463,13 @@
         <v>Julio</v>
       </c>
       <c r="G12" s="112" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="H12" s="153" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I12" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J12" s="153" t="str">
         <f>VLOOKUP(A12,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11145,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11174,13 +11517,13 @@
         <v>Julio</v>
       </c>
       <c r="G13" s="112" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H13" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I13" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J13" s="153" t="str">
         <f>VLOOKUP(A13,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11199,7 +11542,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11228,13 +11571,13 @@
         <v>Julio</v>
       </c>
       <c r="G14" s="112" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H14" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I14" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J14" s="153" t="str">
         <f>VLOOKUP(A14,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11253,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="60" customHeight="1">
@@ -11282,13 +11625,13 @@
         <v>Julio</v>
       </c>
       <c r="G15" s="95" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H15" s="152" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I15" s="152" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J15" s="153" t="str">
         <f>VLOOKUP(A15,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11334,13 +11677,13 @@
         <v>Julio</v>
       </c>
       <c r="G16" s="95" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H16" s="152" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I16" s="152" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J16" s="153" t="str">
         <f>VLOOKUP(A16,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11386,13 +11729,13 @@
         <v>Julio</v>
       </c>
       <c r="G17" s="95" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H17" s="152" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I17" s="152" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J17" s="153" t="str">
         <f>VLOOKUP(A17,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11438,13 +11781,13 @@
         <v>Julio</v>
       </c>
       <c r="G18" s="112" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="H18" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I18" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J18" s="153" t="str">
         <f>VLOOKUP(A18,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11463,7 +11806,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11492,13 +11835,13 @@
         <v>Julio</v>
       </c>
       <c r="G19" s="112" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="H19" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I19" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J19" s="153" t="str">
         <f>VLOOKUP(A19,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11517,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11546,13 +11889,13 @@
         <v>Julio</v>
       </c>
       <c r="G20" s="112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H20" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I20" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J20" s="153" t="str">
         <f>VLOOKUP(A20,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11571,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="195" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11600,13 +11943,13 @@
         <v>Julio</v>
       </c>
       <c r="G21" s="112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H21" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I21" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J21" s="153" t="str">
         <f>VLOOKUP(A21,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11625,7 +11968,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="195" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11654,13 +11997,13 @@
         <v>Julio</v>
       </c>
       <c r="G22" s="112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H22" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I22" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J22" s="153" t="str">
         <f>VLOOKUP(A22,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11679,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="195" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11708,13 +12051,13 @@
         <v>Julio</v>
       </c>
       <c r="G23" s="112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H23" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I23" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J23" s="153" t="str">
         <f>VLOOKUP(A23,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11733,7 +12076,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="195" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11762,13 +12105,13 @@
         <v>Roger</v>
       </c>
       <c r="G24" s="112" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H24" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I24" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J24" s="153" t="str">
         <f>VLOOKUP(A24,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11787,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11816,13 +12159,13 @@
         <v>Roger</v>
       </c>
       <c r="G25" s="112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H25" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I25" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J25" s="153" t="str">
         <f>VLOOKUP(A25,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11868,13 +12211,13 @@
         <v>Roger</v>
       </c>
       <c r="G26" s="112" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H26" s="153" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I26" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J26" s="153" t="str">
         <f>VLOOKUP(A26,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11893,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -11922,13 +12265,13 @@
         <v>Roger</v>
       </c>
       <c r="G27" s="112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H27" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I27" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J27" s="153" t="str">
         <f>VLOOKUP(A27,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11974,13 +12317,13 @@
         <v>Roger</v>
       </c>
       <c r="G28" s="112" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H28" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I28" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J28" s="153" t="str">
         <f>VLOOKUP(A28,Planificación!B$13:H$49,7,FALSE)</f>
@@ -11999,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -12028,13 +12371,13 @@
         <v>Julio</v>
       </c>
       <c r="G29" s="112" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H29" s="153" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I29" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J29" s="153" t="str">
         <f>VLOOKUP(A29,Planificación!B$13:H$49,7,FALSE)</f>
@@ -12053,7 +12396,7 @@
         <v>1</v>
       </c>
       <c r="O29" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -12082,13 +12425,13 @@
         <v>Julio</v>
       </c>
       <c r="G30" s="112" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H30" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I30" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J30" s="153" t="str">
         <f>VLOOKUP(A30,Planificación!B$13:H$49,7,FALSE)</f>
@@ -12107,7 +12450,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -12136,13 +12479,13 @@
         <v>Julio</v>
       </c>
       <c r="G31" s="112" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H31" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I31" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J31" s="153" t="str">
         <f>VLOOKUP(A31,Planificación!B$13:H$49,7,FALSE)</f>
@@ -12161,7 +12504,7 @@
         <v>1</v>
       </c>
       <c r="O31" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -12190,13 +12533,13 @@
         <v>Julio</v>
       </c>
       <c r="G32" s="112" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H32" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I32" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J32" s="153" t="str">
         <f>VLOOKUP(A32,Planificación!B$13:H$49,7,FALSE)</f>
@@ -12215,7 +12558,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -12244,13 +12587,13 @@
         <v>Julio</v>
       </c>
       <c r="G33" s="112" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="H33" s="153" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I33" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J33" s="153" t="str">
         <f>VLOOKUP(A33,Planificación!B$13:H$49,7,FALSE)</f>
@@ -12269,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="O33" s="179" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="113" customFormat="1" ht="60" customHeight="1">
@@ -12298,13 +12641,13 @@
         <v>Julio</v>
       </c>
       <c r="G34" s="112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H34" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I34" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J34" s="153" t="str">
         <f>VLOOKUP(A34,Planificación!B$13:H$49,7,FALSE)</f>
@@ -12350,13 +12693,13 @@
         <v>Julio</v>
       </c>
       <c r="G35" s="112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H35" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I35" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J35" s="153" t="str">
         <f>VLOOKUP(A35,Planificación!B$13:H$49,7,FALSE)</f>
@@ -12402,13 +12745,13 @@
         <v>Julio</v>
       </c>
       <c r="G36" s="112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H36" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I36" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J36" s="153" t="str">
         <f>VLOOKUP(A36,Planificación!B$13:H$49,7,FALSE)</f>
@@ -12454,13 +12797,13 @@
         <v>Julio</v>
       </c>
       <c r="G37" s="112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H37" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I37" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J37" s="153" t="str">
         <f>VLOOKUP(A37,Planificación!B$13:H$49,7,FALSE)</f>
@@ -12506,13 +12849,13 @@
         <v>Julio</v>
       </c>
       <c r="G38" s="112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H38" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I38" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J38" s="153" t="str">
         <f>VLOOKUP(A38,Planificación!B$13:H$49,7,FALSE)</f>
@@ -12558,13 +12901,13 @@
         <v>Julio</v>
       </c>
       <c r="G39" s="112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H39" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I39" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J39" s="153" t="str">
         <f>VLOOKUP(A39,Planificación!B$13:H$49,7,FALSE)</f>
@@ -12610,13 +12953,13 @@
         <v>Julio</v>
       </c>
       <c r="G40" s="112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H40" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I40" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J40" s="153" t="str">
         <f>VLOOKUP(A40,Planificación!B$13:H$49,7,FALSE)</f>
@@ -12662,13 +13005,13 @@
         <v>Julio</v>
       </c>
       <c r="G41" s="112" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H41" s="153" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I41" s="153" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J41" s="153" t="str">
         <f>VLOOKUP(A41,Planificación!B$13:H$49,7,FALSE)</f>
@@ -12749,7 +13092,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H41">
       <formula1>TiposNC</formula1>
     </dataValidation>
@@ -12773,8 +13116,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12790,15 +13133,15 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="250" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
+      <c r="C2" s="260" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="260"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="260"/>
       <c r="J2" s="146"/>
       <c r="K2" s="146"/>
       <c r="L2" s="146"/>
@@ -12808,65 +13151,65 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="244" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="245" t="str">
+      <c r="C4" s="257" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="257"/>
+      <c r="E4" s="247" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="247"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="249"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="248" t="str">
+      <c r="C5" s="258" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="245" t="str">
+      <c r="D5" s="259"/>
+      <c r="E5" s="247" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Julio Leonardo Paredes</v>
       </c>
-      <c r="F5" s="246"/>
-      <c r="G5" s="246"/>
-      <c r="H5" s="246"/>
-      <c r="I5" s="247"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="249"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="252" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="245" t="str">
+      <c r="C6" s="245" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="246"/>
+      <c r="E6" s="247" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Julio Leonardo Paredes,  Roger Apaéstegui Ortega</v>
       </c>
-      <c r="F6" s="246"/>
-      <c r="G6" s="246"/>
-      <c r="H6" s="246"/>
-      <c r="I6" s="247"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
+      <c r="H6" s="248"/>
+      <c r="I6" s="249"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="255" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="255"/>
-      <c r="E7" s="256">
+      <c r="C7" s="251" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="251"/>
+      <c r="E7" s="252">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42290</v>
       </c>
-      <c r="F7" s="257"/>
-      <c r="G7" s="258" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="259"/>
+      <c r="F7" s="253"/>
+      <c r="G7" s="254" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="255"/>
       <c r="I7" s="96">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42304</v>
@@ -12874,24 +13217,24 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="255" t="s">
+      <c r="C8" s="251" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="260"/>
-      <c r="E8" s="245" t="str">
+      <c r="D8" s="256"/>
+      <c r="E8" s="247" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>OCTUBRE</v>
       </c>
-      <c r="F8" s="246"/>
-      <c r="G8" s="246"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="247"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="248"/>
+      <c r="I8" s="249"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="254" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="254"/>
+      <c r="C13" s="250" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="250"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -12901,7 +13244,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="C14" s="98" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="D14" s="150">
         <v>3</v>
@@ -12909,7 +13252,7 @@
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1">
       <c r="C15" s="98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="148">
         <v>1</v>
@@ -12917,7 +13260,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="C16" s="98" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="D16" s="149">
         <v>2</v>
@@ -12925,7 +13268,7 @@
     </row>
     <row r="17" spans="3:14">
       <c r="C17" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="97">
         <f>(D16/(IF(D14=0,1,D14)))</f>
@@ -12934,7 +13277,7 @@
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="97">
         <f>1-D17</f>
@@ -12973,22 +13316,22 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="251" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="251"/>
+      <c r="C26" s="244" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="244"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="99" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D28" s="151">
         <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C28)</f>
@@ -12997,7 +13340,7 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="99" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D29" s="151">
         <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C29)</f>
@@ -13006,7 +13349,7 @@
     </row>
     <row r="30" spans="3:14">
       <c r="C30" s="99" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D30" s="151">
         <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C30)</f>
@@ -13015,7 +13358,7 @@
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D31" s="151">
         <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C31)</f>
@@ -13024,7 +13367,7 @@
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="151">
         <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C32)</f>
@@ -13033,7 +13376,7 @@
     </row>
     <row r="33" spans="3:16">
       <c r="C33" s="99" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D33" s="151">
         <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!H5:H41,C33)</f>
@@ -13042,7 +13385,7 @@
     </row>
     <row r="34" spans="3:16">
       <c r="C34" s="100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="109">
         <f>SUM(D28:D33)</f>
@@ -13050,15 +13393,15 @@
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="251" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="251"/>
+      <c r="C40" s="244" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="244"/>
       <c r="P40" s="144"/>
     </row>
     <row r="41" spans="3:16">
       <c r="C41" s="100" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D41" s="108">
         <f>Planificación!O7</f>
@@ -13067,7 +13410,7 @@
     </row>
     <row r="42" spans="3:16">
       <c r="C42" s="100" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D42" s="108">
         <f>Planificación!O8</f>
@@ -13076,7 +13419,7 @@
     </row>
     <row r="43" spans="3:16">
       <c r="C43" s="100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="108">
         <f>D42</f>
@@ -13084,22 +13427,22 @@
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="251" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" s="251"/>
+      <c r="C57" s="244" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="244"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="3:4">
       <c r="C59" s="101" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D59" s="145">
         <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I41,C59)</f>
@@ -13108,7 +13451,7 @@
     </row>
     <row r="60" spans="3:4">
       <c r="C60" s="101" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D60" s="108">
         <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I41,C60)</f>
@@ -13117,7 +13460,7 @@
     </row>
     <row r="61" spans="3:4">
       <c r="C61" s="101" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D61" s="108">
         <f>COUNTIFS('Seguimiento de NC'!G5:G41,"&lt;&gt;No se encontraron No Conformidades",'Seguimiento de NC'!I5:I41,C61)</f>
@@ -13126,7 +13469,7 @@
     </row>
     <row r="62" spans="3:4">
       <c r="C62" s="100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" s="109">
         <f>SUM(D59:D61)</f>
@@ -13135,6 +13478,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -13146,11 +13494,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13192,107 +13535,107 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" s="116" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B2" s="142"/>
       <c r="C2" s="116" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E2" s="116" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G2" s="115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="105"/>
       <c r="I2" s="115" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J2" s="105"/>
       <c r="K2" s="116" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
       <c r="A3" s="139" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B3" s="141"/>
       <c r="C3" s="140" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E3" s="117" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H3" s="105"/>
       <c r="I3" s="101" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J3" s="105"/>
       <c r="K3" s="114" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="136"/>
       <c r="B4" s="136"/>
       <c r="C4" s="140" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D4" s="105"/>
       <c r="E4" s="117" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G4" s="101" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H4" s="105"/>
       <c r="I4" s="101" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J4" s="105"/>
       <c r="K4" s="114" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="136"/>
       <c r="B5" s="136"/>
       <c r="C5" s="140" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D5" s="105"/>
       <c r="E5" s="130" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G5" s="101" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H5" s="105"/>
       <c r="I5" s="101" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J5" s="105"/>
       <c r="K5" s="114" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="136"/>
       <c r="B6" s="136"/>
       <c r="C6" s="140" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D6" s="105"/>
       <c r="E6" s="117" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H6" s="105"/>
       <c r="I6" s="101" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J6" s="105"/>
       <c r="K6" s="131"/>
@@ -13301,15 +13644,15 @@
       <c r="A7" s="136"/>
       <c r="B7" s="136"/>
       <c r="C7" s="140" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D7" s="105"/>
       <c r="E7" s="117" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H7" s="105"/>
       <c r="I7" s="101" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J7" s="105"/>
       <c r="K7" s="105"/>
@@ -13318,15 +13661,15 @@
       <c r="A8" s="136"/>
       <c r="B8" s="136"/>
       <c r="C8" s="147" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D8" s="105"/>
       <c r="E8" s="117" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H8" s="105"/>
       <c r="I8" s="101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8" s="105"/>
       <c r="K8" s="105"/>
@@ -13337,7 +13680,7 @@
       <c r="C9" s="136"/>
       <c r="D9" s="105"/>
       <c r="E9" s="117" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
@@ -13346,7 +13689,7 @@
       <c r="C10" s="136"/>
       <c r="D10" s="105"/>
       <c r="E10" s="117" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
@@ -13355,7 +13698,7 @@
       <c r="C11" s="136"/>
       <c r="D11" s="105"/>
       <c r="E11" s="117" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
@@ -13364,7 +13707,7 @@
       <c r="C12" s="136"/>
       <c r="D12" s="105"/>
       <c r="E12" s="132" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
@@ -13373,7 +13716,7 @@
       <c r="C13" s="136"/>
       <c r="D13" s="105"/>
       <c r="E13" s="132" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
@@ -13382,7 +13725,7 @@
       <c r="C14" s="136"/>
       <c r="D14" s="105"/>
       <c r="E14" s="132" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
@@ -13391,7 +13734,7 @@
       <c r="C15" s="136"/>
       <c r="D15" s="105"/>
       <c r="E15" s="132" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
@@ -13400,7 +13743,7 @@
       <c r="C16" s="136"/>
       <c r="D16" s="105"/>
       <c r="E16" s="132" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1">
@@ -13409,7 +13752,7 @@
       <c r="C17" s="136"/>
       <c r="D17" s="105"/>
       <c r="E17" s="132" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1">
@@ -13418,7 +13761,7 @@
       <c r="C18" s="136"/>
       <c r="D18" s="105"/>
       <c r="E18" s="132" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1">
@@ -13427,7 +13770,7 @@
       <c r="C19" s="136"/>
       <c r="D19" s="105"/>
       <c r="E19" s="133" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1">
@@ -13436,7 +13779,7 @@
       <c r="C20" s="136"/>
       <c r="D20" s="105"/>
       <c r="E20" s="132" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1">
@@ -13445,7 +13788,7 @@
       <c r="C21" s="136"/>
       <c r="D21" s="105"/>
       <c r="E21" s="132" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1">
@@ -13454,7 +13797,7 @@
       <c r="C22" s="136"/>
       <c r="D22" s="105"/>
       <c r="E22" s="132" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1">
@@ -13463,7 +13806,7 @@
       <c r="C23" s="136"/>
       <c r="D23" s="105"/>
       <c r="E23" s="132" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
@@ -13472,7 +13815,7 @@
       <c r="C24" s="136"/>
       <c r="D24" s="105"/>
       <c r="E24" s="132" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1">
@@ -13481,7 +13824,7 @@
       <c r="C25" s="136"/>
       <c r="D25" s="105"/>
       <c r="E25" s="132" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1">
@@ -13490,7 +13833,7 @@
       <c r="C26" s="136"/>
       <c r="D26" s="105"/>
       <c r="E26" s="132" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
@@ -13499,7 +13842,7 @@
       <c r="C27" s="136"/>
       <c r="D27" s="105"/>
       <c r="E27" s="132" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1">
@@ -13508,7 +13851,7 @@
       <c r="C28" s="136"/>
       <c r="D28" s="105"/>
       <c r="E28" s="132" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1">
@@ -13517,7 +13860,7 @@
       <c r="C29" s="136"/>
       <c r="D29" s="105"/>
       <c r="E29" s="132" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1">
@@ -13526,7 +13869,7 @@
       <c r="C30" s="136"/>
       <c r="D30" s="105"/>
       <c r="E30" s="132" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1">
@@ -13535,7 +13878,7 @@
       <c r="C31" s="136"/>
       <c r="D31" s="105"/>
       <c r="E31" s="132" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1">
@@ -13544,7 +13887,7 @@
       <c r="C32" s="136"/>
       <c r="D32" s="105"/>
       <c r="E32" s="132" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1">
@@ -13553,7 +13896,7 @@
       <c r="C33" s="136"/>
       <c r="D33" s="105"/>
       <c r="E33" s="134" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
@@ -13562,7 +13905,7 @@
       <c r="C34" s="136"/>
       <c r="D34" s="105"/>
       <c r="E34" s="132" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
@@ -13571,7 +13914,7 @@
       <c r="C35" s="136"/>
       <c r="D35" s="105"/>
       <c r="E35" s="132" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
@@ -13580,7 +13923,7 @@
       <c r="C36" s="136"/>
       <c r="D36" s="137"/>
       <c r="E36" s="132" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
@@ -13589,7 +13932,7 @@
       <c r="C37" s="136"/>
       <c r="D37" s="137"/>
       <c r="E37" s="135" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1">
@@ -13598,7 +13941,7 @@
       <c r="C38" s="136"/>
       <c r="D38" s="138"/>
       <c r="E38" s="135" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1">
@@ -13607,7 +13950,7 @@
       <c r="C39" s="136"/>
       <c r="D39" s="138"/>
       <c r="E39" s="135" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
@@ -13616,7 +13959,7 @@
       <c r="C40" s="136"/>
       <c r="D40" s="138"/>
       <c r="E40" s="135" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1">
@@ -13625,7 +13968,7 @@
       <c r="C41" s="136"/>
       <c r="D41" s="138"/>
       <c r="E41" s="135" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:5">
